--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>541941.4667889955</v>
+        <v>534468.375972113</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3310567.966189067</v>
+        <v>3310567.966189069</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14745096.57461291</v>
+        <v>14745096.57461292</v>
       </c>
     </row>
     <row r="9">
@@ -1367,76 +1367,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="C11" t="n">
+        <v>54.35489646302235</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>47.87579280463007</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>54.35489646302234</v>
-      </c>
-      <c r="X11" t="n">
-        <v>54.35489646302234</v>
-      </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>47.87579280463009</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>47.87579280463007</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>54.35489646302234</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>54.35489646302234</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
     </row>
     <row r="13">
@@ -1540,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.7374741997672</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="H13" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="I13" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="J13" t="n">
-        <v>54.35489646302234</v>
+        <v>47.87579280463009</v>
       </c>
       <c r="K13" t="n">
-        <v>6.138318604862867</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>47.87579280463007</v>
       </c>
       <c r="G14" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="H14" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="I14" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>47.87579280463007</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>54.35489646302234</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>54.35489646302234</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>47.87579280463009</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="H16" t="n">
-        <v>47.87579280463007</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="I16" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="J16" t="n">
-        <v>54.35489646302234</v>
+        <v>47.87579280463009</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1844,26 +1844,26 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>54.03561664676239</v>
       </c>
-      <c r="D17" t="n">
-        <v>61.34833860894916</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>61.34833860894916</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>61.34833860894916</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>54.03561664676239</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>61.34833860894916</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>61.34833860894916</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>61.34833860894916</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>54.03561664676239</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.6040116612953</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>61.34833860894916</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>61.34833860894916</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="W19" t="n">
-        <v>61.34833860894916</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>40.6040116612953</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>286.1866261027121</v>
+      </c>
+      <c r="C20" t="n">
         <v>324.9166963018986</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>198.5427590062217</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>87.64386709649041</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>324.9166963018986</v>
-      </c>
-      <c r="X20" t="n">
-        <v>324.9166963018986</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,25 +2160,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>79.71575103532989</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.1779043563795</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>110.6359731810488</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>83.69461296709892</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>89.87531268991961</v>
       </c>
       <c r="S21" t="n">
         <v>168.6069858541462</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>164.7407953858813</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>228.5996000287353</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>2.889944639698121</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>324.9166963018986</v>
+        <v>324.9166963018987</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>324.9166963018987</v>
       </c>
       <c r="D23" t="n">
-        <v>324.9166963018986</v>
+        <v>84.21995675591575</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>324.9166963018986</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>155.7609816795557</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>130.4256444231564</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>201.9666693467966</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>324.9166963018987</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.6359731810488</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>83.69461296709891</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>89.87531268991961</v>
       </c>
       <c r="S24" t="n">
         <v>168.6069858541462</v>
       </c>
       <c r="T24" t="n">
-        <v>199.4971928637787</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>173.3452009382362</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>165.9831795504493</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.8521351445063</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>60.74746488422883</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>227.3523459686665</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.247254060068634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>187.3957682571799</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>324.9166963018986</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>201.9666693467966</v>
+        <v>138.041547044759</v>
       </c>
       <c r="T26" t="n">
         <v>221.7408848006344</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3208905592175</v>
       </c>
       <c r="V26" t="n">
         <v>324.9166963018986</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>34.96141391392164</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>89.37694341780738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1779043563795</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>110.6359731810488</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>83.69461296709891</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>89.87531268991961</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.6069858541462</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.4971928637787</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.930486501578</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>154.0638663653675</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.54914939891816</v>
+        <v>74.53573366336769</v>
       </c>
       <c r="R28" t="n">
-        <v>171.050450629817</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>286.1866261027121</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="E29" t="n">
-        <v>258.93679318082</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>130.4256444231564</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.7408848006344</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>324.9166963018986</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>324.9166963018986</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,19 +2877,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1779043563795</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>83.69461296709891</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>89.87531268991961</v>
       </c>
       <c r="S30" t="n">
-        <v>151.4263595354816</v>
+        <v>168.6069858541462</v>
       </c>
       <c r="T30" t="n">
         <v>199.4971928637787</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>114.4398661306021</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>227.3523459686665</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.247254060068634</v>
+        <v>48.76761984679787</v>
       </c>
     </row>
     <row r="32">
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>324.9166963018986</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>324.9166963018986</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>155.7609816795557</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>130.4256444231564</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3208905592175</v>
       </c>
       <c r="V32" t="n">
         <v>324.9166963018986</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>34.86573554349469</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>126.8673786855621</v>
       </c>
       <c r="H33" t="n">
-        <v>110.6359731810488</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>83.69461296709891</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>89.87531268991961</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.6069858541462</v>
       </c>
       <c r="T33" t="n">
         <v>199.4971928637787</v>
@@ -3165,7 +3165,7 @@
         <v>225.930486501578</v>
       </c>
       <c r="V33" t="n">
-        <v>96.25407107941639</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.54914939891816</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>171.050450629817</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>228.5996000287353</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>270.5617998388763</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>270.5617998388763</v>
+        <v>156.7061039131678</v>
       </c>
       <c r="G35" t="n">
         <v>270.5617998388763</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>130.4256444231564</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.7408848006344</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>270.5617998388763</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>238.3108332980823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>14.02787677621739</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>50.19767044908993</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>89.87531268991961</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.6069858541462</v>
       </c>
       <c r="T36" t="n">
         <v>199.4971928637787</v>
       </c>
       <c r="U36" t="n">
-        <v>225.930486501578</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>171.050450629817</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>227.3523459686665</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.247254060068641</v>
+        <v>57.54914939891816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>270.5617998388763</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>201.9666693467966</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.7408848006344</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3208905592175</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>238.3108332980823</v>
+      </c>
+      <c r="W38" t="n">
         <v>270.5617998388763</v>
       </c>
-      <c r="W38" t="n">
-        <v>104.4059882691864</v>
-      </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>270.5617998388763</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3588,16 +3588,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>34.35837902601359</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>110.6359731810488</v>
+        <v>13.77845015221254</v>
       </c>
       <c r="I39" t="n">
         <v>83.69461296709891</v>
@@ -3630,7 +3630,7 @@
         <v>89.87531268991961</v>
       </c>
       <c r="S39" t="n">
-        <v>168.6069858541462</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>199.4971928637787</v>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.53573366336769</v>
+        <v>57.54914939891816</v>
       </c>
       <c r="R40" t="n">
-        <v>154.0638663653675</v>
+        <v>171.050450629817</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>155.8003050588407</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>263.5683576929495</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>263.5683576929495</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>263.5683576929495</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>10.41012465531539</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>130.4256444231564</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>221.7408848006344</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3208905592175</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>263.5683576929495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>16.87201725565135</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>89.87531268991961</v>
       </c>
       <c r="S42" t="n">
-        <v>168.6069858541462</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>199.4971928637787</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.930486501578</v>
@@ -3879,13 +3879,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>106.1455174759506</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3955,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>228.5996000287352</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>52.70777838838529</v>
+        <v>59.25232753827648</v>
       </c>
       <c r="C11" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="D11" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="E11" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="F11" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="G11" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="H11" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="I11" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="J11" t="n">
-        <v>18.52680340900599</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="K11" t="n">
-        <v>18.52680340900599</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="L11" t="n">
-        <v>18.52680340900599</v>
+        <v>58.15973921543391</v>
       </c>
       <c r="M11" t="n">
-        <v>32.78490403321501</v>
+        <v>58.15973921543391</v>
       </c>
       <c r="N11" t="n">
-        <v>86.59625153160712</v>
+        <v>111.971086713826</v>
       </c>
       <c r="O11" t="n">
-        <v>140.4075990299992</v>
+        <v>165.7824342122182</v>
       </c>
       <c r="P11" t="n">
-        <v>194.2189465283913</v>
+        <v>194.2189465283914</v>
       </c>
       <c r="Q11" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="R11" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="S11" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="U11" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="V11" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="W11" t="n">
-        <v>162.5156500308547</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="X11" t="n">
-        <v>107.61171420962</v>
+        <v>169.0601991807459</v>
       </c>
       <c r="Y11" t="n">
-        <v>107.61171420962</v>
+        <v>114.1562633595112</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.61171420962</v>
+        <v>162.5156500308547</v>
       </c>
       <c r="C12" t="n">
         <v>107.61171420962</v>
@@ -5103,67 +5103,67 @@
         <v>107.61171420962</v>
       </c>
       <c r="E12" t="n">
-        <v>107.61171420962</v>
+        <v>52.70777838838532</v>
       </c>
       <c r="F12" t="n">
-        <v>107.61171420962</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="G12" t="n">
-        <v>107.61171420962</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="H12" t="n">
-        <v>59.25232753827647</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="I12" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="J12" t="n">
-        <v>19.09957690592854</v>
+        <v>19.09957690592855</v>
       </c>
       <c r="K12" t="n">
-        <v>72.91092440432065</v>
+        <v>19.09957690592855</v>
       </c>
       <c r="L12" t="n">
-        <v>126.7222719027128</v>
+        <v>19.09957690592855</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6082383536972</v>
+        <v>19.09957690592855</v>
       </c>
       <c r="N12" t="n">
-        <v>163.6082383536972</v>
+        <v>55.98554335691304</v>
       </c>
       <c r="O12" t="n">
-        <v>163.6082383536972</v>
+        <v>109.7968908553052</v>
       </c>
       <c r="P12" t="n">
-        <v>163.6082383536972</v>
+        <v>163.6082383536973</v>
       </c>
       <c r="Q12" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="R12" t="n">
+        <v>217.4195858520894</v>
+      </c>
+      <c r="S12" t="n">
+        <v>217.4195858520894</v>
+      </c>
+      <c r="T12" t="n">
+        <v>217.4195858520894</v>
+      </c>
+      <c r="U12" t="n">
+        <v>217.4195858520894</v>
+      </c>
+      <c r="V12" t="n">
+        <v>217.4195858520894</v>
+      </c>
+      <c r="W12" t="n">
+        <v>217.4195858520894</v>
+      </c>
+      <c r="X12" t="n">
+        <v>217.4195858520894</v>
+      </c>
+      <c r="Y12" t="n">
         <v>162.5156500308547</v>
-      </c>
-      <c r="S12" t="n">
-        <v>162.5156500308547</v>
-      </c>
-      <c r="T12" t="n">
-        <v>162.5156500308547</v>
-      </c>
-      <c r="U12" t="n">
-        <v>162.5156500308547</v>
-      </c>
-      <c r="V12" t="n">
-        <v>162.5156500308547</v>
-      </c>
-      <c r="W12" t="n">
-        <v>162.5156500308547</v>
-      </c>
-      <c r="X12" t="n">
-        <v>162.5156500308547</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>107.61171420962</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="C13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="D13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="E13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="F13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="G13" t="n">
-        <v>175.2605210038396</v>
+        <v>162.5156500308547</v>
       </c>
       <c r="H13" t="n">
-        <v>120.356585182605</v>
+        <v>107.61171420962</v>
       </c>
       <c r="I13" t="n">
-        <v>65.45264936137028</v>
+        <v>52.70777838838532</v>
       </c>
       <c r="J13" t="n">
-        <v>10.54871354013559</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="K13" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="L13" t="n">
-        <v>52.09844119955877</v>
+        <v>52.09844119955879</v>
       </c>
       <c r="M13" t="n">
         <v>105.9097886979509</v>
       </c>
       <c r="N13" t="n">
-        <v>159.721136196343</v>
+        <v>159.7211361963431</v>
       </c>
       <c r="O13" t="n">
-        <v>203.4891613780353</v>
+        <v>203.4891613780354</v>
       </c>
       <c r="P13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="Q13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="R13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="S13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="U13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="V13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="W13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="X13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="C14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="D14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="E14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0601991807458</v>
+        <v>169.0601991807459</v>
       </c>
       <c r="G14" t="n">
-        <v>114.1562633595111</v>
+        <v>114.1562633595112</v>
       </c>
       <c r="H14" t="n">
-        <v>59.25232753827647</v>
+        <v>59.25232753827648</v>
       </c>
       <c r="I14" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="J14" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="K14" t="n">
-        <v>58.15973921543389</v>
+        <v>58.15973921543391</v>
       </c>
       <c r="L14" t="n">
         <v>111.971086713826</v>
       </c>
       <c r="M14" t="n">
-        <v>165.7824342122181</v>
+        <v>140.4075990299992</v>
       </c>
       <c r="N14" t="n">
-        <v>194.2189465283913</v>
+        <v>140.4075990299992</v>
       </c>
       <c r="O14" t="n">
-        <v>194.2189465283913</v>
+        <v>194.2189465283914</v>
       </c>
       <c r="P14" t="n">
-        <v>194.2189465283913</v>
+        <v>194.2189465283914</v>
       </c>
       <c r="Q14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="R14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="S14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="U14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="V14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="W14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="X14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="Y14" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52.70777838838529</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="C15" t="n">
-        <v>52.70777838838529</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="D15" t="n">
-        <v>52.70777838838529</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="E15" t="n">
-        <v>52.70777838838529</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="F15" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="G15" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="H15" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="I15" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="J15" t="n">
-        <v>19.09957690592854</v>
+        <v>19.09957690592855</v>
       </c>
       <c r="K15" t="n">
-        <v>72.91092440432065</v>
+        <v>19.09957690592855</v>
       </c>
       <c r="L15" t="n">
-        <v>109.7968908553051</v>
+        <v>19.09957690592855</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6082383536972</v>
+        <v>72.91092440432067</v>
       </c>
       <c r="N15" t="n">
-        <v>217.4195858520893</v>
+        <v>126.7222719027128</v>
       </c>
       <c r="O15" t="n">
-        <v>217.4195858520893</v>
+        <v>180.5336194011049</v>
       </c>
       <c r="P15" t="n">
-        <v>217.4195858520893</v>
+        <v>180.5336194011049</v>
       </c>
       <c r="Q15" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="R15" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="S15" t="n">
+        <v>217.4195858520894</v>
+      </c>
+      <c r="T15" t="n">
+        <v>217.4195858520894</v>
+      </c>
+      <c r="U15" t="n">
         <v>162.5156500308547</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>107.61171420962</v>
       </c>
-      <c r="U15" t="n">
-        <v>52.70777838838529</v>
-      </c>
-      <c r="V15" t="n">
-        <v>52.70777838838529</v>
-      </c>
       <c r="W15" t="n">
-        <v>52.70777838838529</v>
+        <v>52.70777838838532</v>
       </c>
       <c r="X15" t="n">
-        <v>52.70777838838529</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="Y15" t="n">
-        <v>52.70777838838529</v>
+        <v>4.348391717041788</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="C16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="D16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="E16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="F16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="G16" t="n">
         <v>162.5156500308547</v>
       </c>
       <c r="H16" t="n">
-        <v>114.1562633595111</v>
+        <v>107.61171420962</v>
       </c>
       <c r="I16" t="n">
-        <v>59.25232753827647</v>
+        <v>52.70777838838532</v>
       </c>
       <c r="J16" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="K16" t="n">
-        <v>4.348391717041787</v>
+        <v>4.348391717041788</v>
       </c>
       <c r="L16" t="n">
         <v>52.09844119955879</v>
@@ -5446,40 +5446,40 @@
         <v>105.9097886979509</v>
       </c>
       <c r="N16" t="n">
-        <v>159.721136196343</v>
+        <v>159.7211361963431</v>
       </c>
       <c r="O16" t="n">
-        <v>203.4891613780353</v>
+        <v>203.4891613780354</v>
       </c>
       <c r="P16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="Q16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="R16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="S16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="U16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="V16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="W16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="X16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.4195858520893</v>
+        <v>217.4195858520894</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>121.4573168419599</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="C17" t="n">
-        <v>66.87588588563429</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="D17" t="n">
-        <v>4.907867088715933</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="E17" t="n">
-        <v>4.907867088715933</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="F17" t="n">
-        <v>4.907867088715933</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="G17" t="n">
-        <v>4.907867088715933</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="H17" t="n">
-        <v>4.907867088715933</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="I17" t="n">
         <v>4.907867088715933</v>
       </c>
       <c r="J17" t="n">
-        <v>19.08627878068013</v>
+        <v>19.08627878068014</v>
       </c>
       <c r="K17" t="n">
-        <v>19.08627878068013</v>
+        <v>19.08627878068014</v>
       </c>
       <c r="L17" t="n">
-        <v>39.98814944351965</v>
+        <v>79.82113400353981</v>
       </c>
       <c r="M17" t="n">
-        <v>100.7230046663793</v>
+        <v>140.5559892263995</v>
       </c>
       <c r="N17" t="n">
-        <v>161.457859889239</v>
+        <v>201.2908444492591</v>
       </c>
       <c r="O17" t="n">
-        <v>222.1927151120987</v>
+        <v>245.3933544357967</v>
       </c>
       <c r="P17" t="n">
-        <v>222.1927151120987</v>
+        <v>245.3933544357967</v>
       </c>
       <c r="Q17" t="n">
         <v>245.3933544357967</v>
       </c>
       <c r="R17" t="n">
+        <v>245.3933544357967</v>
+      </c>
+      <c r="S17" t="n">
         <v>183.4253356388783</v>
-      </c>
-      <c r="S17" t="n">
-        <v>121.4573168419599</v>
       </c>
       <c r="T17" t="n">
         <v>121.4573168419599</v>
       </c>
       <c r="U17" t="n">
-        <v>121.4573168419599</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="V17" t="n">
-        <v>121.4573168419599</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="W17" t="n">
-        <v>121.4573168419599</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="X17" t="n">
-        <v>121.4573168419599</v>
+        <v>59.48929804504159</v>
       </c>
       <c r="Y17" t="n">
-        <v>121.4573168419599</v>
+        <v>59.48929804504159</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.907867088715933</v>
+        <v>128.8439046825526</v>
       </c>
       <c r="C18" t="n">
-        <v>4.907867088715933</v>
+        <v>66.87588588563429</v>
       </c>
       <c r="D18" t="n">
         <v>4.907867088715933</v>
@@ -5601,43 +5601,43 @@
         <v>141.128762723322</v>
       </c>
       <c r="M18" t="n">
-        <v>184.658499212937</v>
+        <v>201.8636179461817</v>
       </c>
       <c r="N18" t="n">
-        <v>245.3933544357967</v>
+        <v>201.8636179461817</v>
       </c>
       <c r="O18" t="n">
-        <v>245.3933544357967</v>
+        <v>201.8636179461817</v>
       </c>
       <c r="P18" t="n">
-        <v>245.3933544357967</v>
+        <v>201.8636179461817</v>
       </c>
       <c r="Q18" t="n">
         <v>245.3933544357967</v>
       </c>
       <c r="R18" t="n">
-        <v>245.3933544357967</v>
+        <v>183.4253356388783</v>
       </c>
       <c r="S18" t="n">
-        <v>245.3933544357967</v>
+        <v>183.4253356388783</v>
       </c>
       <c r="T18" t="n">
         <v>183.4253356388783</v>
       </c>
       <c r="U18" t="n">
-        <v>121.4573168419599</v>
+        <v>183.4253356388783</v>
       </c>
       <c r="V18" t="n">
-        <v>59.48929804504159</v>
+        <v>183.4253356388783</v>
       </c>
       <c r="W18" t="n">
-        <v>4.907867088715933</v>
+        <v>183.4253356388783</v>
       </c>
       <c r="X18" t="n">
-        <v>4.907867088715933</v>
+        <v>183.4253356388783</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.907867088715933</v>
+        <v>183.4253356388783</v>
       </c>
     </row>
     <row r="19">
@@ -5695,22 +5695,22 @@
         <v>231.8260766726986</v>
       </c>
       <c r="R19" t="n">
-        <v>190.811923479471</v>
+        <v>231.8260766726986</v>
       </c>
       <c r="S19" t="n">
-        <v>128.8439046825526</v>
+        <v>231.8260766726986</v>
       </c>
       <c r="T19" t="n">
-        <v>66.87588588563429</v>
+        <v>169.8580578757802</v>
       </c>
       <c r="U19" t="n">
-        <v>66.87588588563429</v>
+        <v>107.8900390788619</v>
       </c>
       <c r="V19" t="n">
-        <v>66.87588588563429</v>
+        <v>45.92202028194351</v>
       </c>
       <c r="W19" t="n">
-        <v>4.907867088715933</v>
+        <v>45.92202028194351</v>
       </c>
       <c r="X19" t="n">
         <v>4.907867088715933</v>
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>226.5415771245778</v>
+        <v>682.3907019706139</v>
       </c>
       <c r="C20" t="n">
-        <v>226.5415771245778</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="D20" t="n">
-        <v>226.5415771245778</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="E20" t="n">
-        <v>226.5415771245778</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="F20" t="n">
-        <v>226.5415771245778</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="G20" t="n">
-        <v>226.5415771245778</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="H20" t="n">
-        <v>226.5415771245778</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="I20" t="n">
         <v>25.99333570415189</v>
       </c>
       <c r="J20" t="n">
-        <v>40.17174739611607</v>
+        <v>40.1717473961161</v>
       </c>
       <c r="K20" t="n">
         <v>182.1663153959772</v>
       </c>
       <c r="L20" t="n">
-        <v>410.5997605606221</v>
+        <v>410.5997605606223</v>
       </c>
       <c r="M20" t="n">
-        <v>681.3825281920247</v>
+        <v>681.3825281920248</v>
       </c>
       <c r="N20" t="n">
         <v>941.9148465525578</v>
@@ -5777,25 +5777,25 @@
         <v>1299.666785207595</v>
       </c>
       <c r="S20" t="n">
-        <v>1211.137626524271</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="T20" t="n">
-        <v>1211.137626524271</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="U20" t="n">
-        <v>1211.137626524271</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="V20" t="n">
-        <v>1211.137626524271</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="W20" t="n">
-        <v>882.9389433910399</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="X20" t="n">
-        <v>554.7402602578088</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="Y20" t="n">
-        <v>554.7402602578088</v>
+        <v>971.4681020743635</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.5963997212809</v>
+        <v>174.9277453654032</v>
       </c>
       <c r="C21" t="n">
-        <v>747.1433704401539</v>
+        <v>174.9277453654032</v>
       </c>
       <c r="D21" t="n">
-        <v>666.6224097984066</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="E21" t="n">
-        <v>507.384954792951</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="F21" t="n">
-        <v>360.850396819836</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="G21" t="n">
-        <v>222.2868570659173</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="H21" t="n">
-        <v>110.5333488022316</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="I21" t="n">
         <v>25.99333570415189</v>
       </c>
       <c r="J21" t="n">
-        <v>40.74452089303865</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="K21" t="n">
-        <v>192.5774890298645</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="L21" t="n">
-        <v>192.5774890298645</v>
+        <v>291.5558950029903</v>
       </c>
       <c r="M21" t="n">
-        <v>514.2450183687442</v>
+        <v>385.9608801689025</v>
       </c>
       <c r="N21" t="n">
-        <v>835.9125477076238</v>
+        <v>707.6284095077822</v>
       </c>
       <c r="O21" t="n">
-        <v>1123.675426497045</v>
+        <v>995.3912882972036</v>
       </c>
       <c r="P21" t="n">
-        <v>1299.666785207595</v>
+        <v>1209.343300471844</v>
       </c>
       <c r="Q21" t="n">
         <v>1299.666785207595</v>
       </c>
       <c r="R21" t="n">
-        <v>1299.666785207595</v>
+        <v>1208.883641076363</v>
       </c>
       <c r="S21" t="n">
-        <v>1129.356698486235</v>
+        <v>1038.573554355003</v>
       </c>
       <c r="T21" t="n">
-        <v>1129.356698486235</v>
+        <v>872.1687105308804</v>
       </c>
       <c r="U21" t="n">
-        <v>1129.356698486235</v>
+        <v>872.1687105308804</v>
       </c>
       <c r="V21" t="n">
-        <v>1129.356698486235</v>
+        <v>637.0166022991376</v>
       </c>
       <c r="W21" t="n">
-        <v>1129.356698486235</v>
+        <v>382.779245570936</v>
       </c>
       <c r="X21" t="n">
-        <v>1129.356698486235</v>
+        <v>174.9277453654032</v>
       </c>
       <c r="Y21" t="n">
-        <v>921.5963997212809</v>
+        <v>174.9277453654032</v>
       </c>
     </row>
     <row r="22">
@@ -5947,10 +5947,10 @@
         <v>1299.666785207595</v>
       </c>
       <c r="W22" t="n">
-        <v>1068.758098309882</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="X22" t="n">
-        <v>1068.758098309882</v>
+        <v>1071.677234309577</v>
       </c>
       <c r="Y22" t="n">
         <v>1068.758098309882</v>
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>839.725026899458</v>
+        <v>439.2626822271968</v>
       </c>
       <c r="C23" t="n">
-        <v>839.725026899458</v>
+        <v>111.0639990939658</v>
       </c>
       <c r="D23" t="n">
-        <v>511.5263437662271</v>
+        <v>25.9933357041519</v>
       </c>
       <c r="E23" t="n">
-        <v>511.5263437662271</v>
+        <v>25.9933357041519</v>
       </c>
       <c r="F23" t="n">
-        <v>183.3276606329961</v>
+        <v>25.9933357041519</v>
       </c>
       <c r="G23" t="n">
-        <v>25.99333570415189</v>
+        <v>25.9933357041519</v>
       </c>
       <c r="H23" t="n">
-        <v>25.99333570415189</v>
+        <v>25.9933357041519</v>
       </c>
       <c r="I23" t="n">
-        <v>25.99333570415189</v>
+        <v>25.9933357041519</v>
       </c>
       <c r="J23" t="n">
-        <v>40.17174739611619</v>
+        <v>40.17174739611596</v>
       </c>
       <c r="K23" t="n">
-        <v>182.1663153959772</v>
+        <v>182.166315395977</v>
       </c>
       <c r="L23" t="n">
-        <v>410.5997605606222</v>
+        <v>410.599760560622</v>
       </c>
       <c r="M23" t="n">
-        <v>681.3825281920247</v>
+        <v>681.3825281920244</v>
       </c>
       <c r="N23" t="n">
-        <v>941.9148465525581</v>
+        <v>941.9148465525578</v>
       </c>
       <c r="O23" t="n">
         <v>1142.740489123005</v>
@@ -6011,28 +6011,28 @@
         <v>1299.666785207595</v>
       </c>
       <c r="R23" t="n">
-        <v>1167.923710032689</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="S23" t="n">
-        <v>1167.923710032689</v>
+        <v>1095.660048493659</v>
       </c>
       <c r="T23" t="n">
-        <v>1167.923710032689</v>
+        <v>1095.660048493659</v>
       </c>
       <c r="U23" t="n">
-        <v>1167.923710032689</v>
+        <v>1095.660048493659</v>
       </c>
       <c r="V23" t="n">
-        <v>1167.923710032689</v>
+        <v>1095.660048493659</v>
       </c>
       <c r="W23" t="n">
-        <v>1167.923710032689</v>
+        <v>767.4613653604279</v>
       </c>
       <c r="X23" t="n">
-        <v>1167.923710032689</v>
+        <v>767.4613653604279</v>
       </c>
       <c r="Y23" t="n">
-        <v>1167.923710032689</v>
+        <v>767.4613653604279</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>349.3807746465302</v>
+        <v>381.5243120713728</v>
       </c>
       <c r="C24" t="n">
-        <v>174.9277453654032</v>
+        <v>381.5243120713728</v>
       </c>
       <c r="D24" t="n">
-        <v>25.99333570415189</v>
+        <v>381.5243120713728</v>
       </c>
       <c r="E24" t="n">
-        <v>25.99333570415189</v>
+        <v>222.2868570659173</v>
       </c>
       <c r="F24" t="n">
-        <v>25.99333570415189</v>
+        <v>222.2868570659173</v>
       </c>
       <c r="G24" t="n">
-        <v>25.99333570415189</v>
+        <v>222.2868570659173</v>
       </c>
       <c r="H24" t="n">
-        <v>25.99333570415189</v>
+        <v>110.5333488022316</v>
       </c>
       <c r="I24" t="n">
-        <v>25.99333570415189</v>
+        <v>25.9933357041519</v>
       </c>
       <c r="J24" t="n">
         <v>40.74452089303865</v>
       </c>
       <c r="K24" t="n">
-        <v>40.74452089303865</v>
+        <v>192.5774890298645</v>
       </c>
       <c r="L24" t="n">
-        <v>306.3070801918771</v>
+        <v>278.2453630046634</v>
       </c>
       <c r="M24" t="n">
-        <v>627.9746095307568</v>
+        <v>599.9128923435431</v>
       </c>
       <c r="N24" t="n">
-        <v>949.6421388696365</v>
+        <v>921.5804216824229</v>
       </c>
       <c r="O24" t="n">
-        <v>995.3912882972036</v>
+        <v>1209.343300471844</v>
       </c>
       <c r="P24" t="n">
         <v>1209.343300471844</v>
@@ -6090,28 +6090,28 @@
         <v>1299.666785207595</v>
       </c>
       <c r="R24" t="n">
-        <v>1299.666785207595</v>
+        <v>1208.883641076363</v>
       </c>
       <c r="S24" t="n">
-        <v>1129.356698486235</v>
+        <v>1038.573554355003</v>
       </c>
       <c r="T24" t="n">
-        <v>927.8443824622159</v>
+        <v>1038.573554355003</v>
       </c>
       <c r="U24" t="n">
-        <v>752.7482198983409</v>
+        <v>1038.573554355003</v>
       </c>
       <c r="V24" t="n">
-        <v>517.5961116665983</v>
+        <v>803.4214461232605</v>
       </c>
       <c r="W24" t="n">
-        <v>517.5961116665983</v>
+        <v>549.1840893950589</v>
       </c>
       <c r="X24" t="n">
-        <v>517.5961116665983</v>
+        <v>381.5243120713728</v>
       </c>
       <c r="Y24" t="n">
-        <v>517.5961116665983</v>
+        <v>381.5243120713728</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.99333570415189</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="C25" t="n">
-        <v>25.99333570415189</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="D25" t="n">
-        <v>25.99333570415189</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="E25" t="n">
-        <v>25.99333570415189</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="F25" t="n">
-        <v>25.99333570415189</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="G25" t="n">
-        <v>25.99333570415189</v>
+        <v>87.35441134478708</v>
       </c>
       <c r="H25" t="n">
-        <v>25.99333570415189</v>
+        <v>25.9933357041519</v>
       </c>
       <c r="I25" t="n">
-        <v>25.99333570415189</v>
+        <v>25.9933357041519</v>
       </c>
       <c r="J25" t="n">
-        <v>25.99333570415189</v>
+        <v>25.9933357041519</v>
       </c>
       <c r="K25" t="n">
-        <v>25.99333570415189</v>
+        <v>25.9933357041519</v>
       </c>
       <c r="L25" t="n">
-        <v>73.74338518666887</v>
+        <v>73.74338518666889</v>
       </c>
       <c r="M25" t="n">
         <v>134.4782404095286</v>
@@ -6175,22 +6175,22 @@
         <v>256.9020226018642</v>
       </c>
       <c r="T25" t="n">
-        <v>27.25318829007981</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="U25" t="n">
-        <v>27.25318829007981</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="V25" t="n">
-        <v>27.25318829007981</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="W25" t="n">
-        <v>27.25318829007981</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="X25" t="n">
-        <v>27.25318829007981</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="Y25" t="n">
-        <v>25.99333570415189</v>
+        <v>256.9020226018642</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>25.99333570415189</v>
       </c>
       <c r="J26" t="n">
-        <v>40.17174739611619</v>
+        <v>40.1717473961161</v>
       </c>
       <c r="K26" t="n">
-        <v>182.1663153959773</v>
+        <v>182.1663153959772</v>
       </c>
       <c r="L26" t="n">
-        <v>410.5997605606224</v>
+        <v>410.5997605606222</v>
       </c>
       <c r="M26" t="n">
-        <v>681.3825281920248</v>
+        <v>681.3825281920247</v>
       </c>
       <c r="N26" t="n">
-        <v>941.9148465525578</v>
+        <v>941.9148465525579</v>
       </c>
       <c r="O26" t="n">
         <v>1142.740489123005</v>
@@ -6251,25 +6251,25 @@
         <v>1299.666785207595</v>
       </c>
       <c r="S26" t="n">
-        <v>1095.660048493659</v>
+        <v>1160.230879101777</v>
       </c>
       <c r="T26" t="n">
-        <v>871.6793567758461</v>
+        <v>936.2501873839649</v>
       </c>
       <c r="U26" t="n">
-        <v>871.6793567758461</v>
+        <v>682.3907019706139</v>
       </c>
       <c r="V26" t="n">
-        <v>543.4806736426151</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="W26" t="n">
-        <v>543.4806736426151</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="X26" t="n">
-        <v>543.4806736426151</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="Y26" t="n">
-        <v>543.4806736426151</v>
+        <v>354.1920188373829</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>597.6646956190191</v>
+        <v>210.2423048744149</v>
       </c>
       <c r="C27" t="n">
-        <v>597.6646956190191</v>
+        <v>174.9277453654032</v>
       </c>
       <c r="D27" t="n">
-        <v>597.6646956190191</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="E27" t="n">
-        <v>507.384954792951</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="F27" t="n">
-        <v>360.850396819836</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="G27" t="n">
-        <v>222.2868570659173</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="H27" t="n">
-        <v>110.5333488022316</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="I27" t="n">
         <v>25.99333570415189</v>
@@ -6306,49 +6306,49 @@
         <v>40.74452089303865</v>
       </c>
       <c r="K27" t="n">
-        <v>40.74452089303865</v>
+        <v>176.8171550563564</v>
       </c>
       <c r="L27" t="n">
-        <v>64.29335083002286</v>
+        <v>442.3797143551948</v>
       </c>
       <c r="M27" t="n">
-        <v>385.9608801689025</v>
+        <v>764.0472436940745</v>
       </c>
       <c r="N27" t="n">
-        <v>707.6284095077822</v>
+        <v>1085.714773032954</v>
       </c>
       <c r="O27" t="n">
-        <v>995.3912882972036</v>
+        <v>1085.714773032954</v>
       </c>
       <c r="P27" t="n">
-        <v>1209.343300471844</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="Q27" t="n">
         <v>1299.666785207595</v>
       </c>
       <c r="R27" t="n">
-        <v>1208.883641076363</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="S27" t="n">
-        <v>1208.883641076363</v>
+        <v>1129.356698486235</v>
       </c>
       <c r="T27" t="n">
-        <v>1208.883641076363</v>
+        <v>927.8443824622159</v>
       </c>
       <c r="U27" t="n">
-        <v>1208.883641076363</v>
+        <v>699.6317698343593</v>
       </c>
       <c r="V27" t="n">
-        <v>973.73153284462</v>
+        <v>464.4796616026165</v>
       </c>
       <c r="W27" t="n">
-        <v>973.73153284462</v>
+        <v>210.2423048744149</v>
       </c>
       <c r="X27" t="n">
-        <v>765.8800326390872</v>
+        <v>210.2423048744149</v>
       </c>
       <c r="Y27" t="n">
-        <v>765.8800326390872</v>
+        <v>210.2423048744149</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25.99333570415189</v>
+        <v>181.6134027398766</v>
       </c>
       <c r="C28" t="n">
         <v>25.99333570415189</v>
@@ -6403,31 +6403,31 @@
         <v>256.9020226018642</v>
       </c>
       <c r="Q28" t="n">
-        <v>198.771568663563</v>
+        <v>181.6134027398766</v>
       </c>
       <c r="R28" t="n">
-        <v>25.99333570415189</v>
+        <v>181.6134027398766</v>
       </c>
       <c r="S28" t="n">
-        <v>25.99333570415189</v>
+        <v>181.6134027398766</v>
       </c>
       <c r="T28" t="n">
-        <v>25.99333570415189</v>
+        <v>181.6134027398766</v>
       </c>
       <c r="U28" t="n">
-        <v>25.99333570415189</v>
+        <v>181.6134027398766</v>
       </c>
       <c r="V28" t="n">
-        <v>25.99333570415189</v>
+        <v>181.6134027398766</v>
       </c>
       <c r="W28" t="n">
-        <v>25.99333570415189</v>
+        <v>181.6134027398766</v>
       </c>
       <c r="X28" t="n">
-        <v>25.99333570415189</v>
+        <v>181.6134027398766</v>
       </c>
       <c r="Y28" t="n">
-        <v>25.99333570415189</v>
+        <v>181.6134027398766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.5456520484145</v>
+        <v>682.3907019706139</v>
       </c>
       <c r="C29" t="n">
-        <v>287.5456520484145</v>
+        <v>354.1920188373829</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5456520484145</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="E29" t="n">
         <v>25.99333570415189</v>
@@ -6461,19 +6461,19 @@
         <v>25.99333570415189</v>
       </c>
       <c r="J29" t="n">
-        <v>40.17174739611605</v>
+        <v>40.17174739611619</v>
       </c>
       <c r="K29" t="n">
-        <v>182.1663153959772</v>
+        <v>182.1663153959773</v>
       </c>
       <c r="L29" t="n">
-        <v>410.5997605606222</v>
+        <v>410.5997605606224</v>
       </c>
       <c r="M29" t="n">
-        <v>681.3825281920247</v>
+        <v>681.3825281920248</v>
       </c>
       <c r="N29" t="n">
-        <v>941.9148465525579</v>
+        <v>941.9148465525578</v>
       </c>
       <c r="O29" t="n">
         <v>1142.740489123005</v>
@@ -6485,28 +6485,28 @@
         <v>1299.666785207595</v>
       </c>
       <c r="R29" t="n">
-        <v>1167.923710032689</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="S29" t="n">
-        <v>1167.923710032689</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="T29" t="n">
-        <v>943.9430183148766</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="U29" t="n">
-        <v>943.9430183148766</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="V29" t="n">
-        <v>615.7443351816455</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="W29" t="n">
-        <v>615.7443351816455</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="X29" t="n">
-        <v>287.5456520484145</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="Y29" t="n">
-        <v>287.5456520484145</v>
+        <v>971.4681020743635</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>619.2632980978924</v>
+        <v>259.4677584634829</v>
       </c>
       <c r="C30" t="n">
-        <v>619.2632980978924</v>
+        <v>259.4677584634829</v>
       </c>
       <c r="D30" t="n">
-        <v>470.3288884366412</v>
+        <v>110.5333488022316</v>
       </c>
       <c r="E30" t="n">
-        <v>311.0914334311857</v>
+        <v>110.5333488022316</v>
       </c>
       <c r="F30" t="n">
-        <v>164.5568754580706</v>
+        <v>110.5333488022316</v>
       </c>
       <c r="G30" t="n">
-        <v>25.99333570415189</v>
+        <v>110.5333488022316</v>
       </c>
       <c r="H30" t="n">
-        <v>25.99333570415189</v>
+        <v>110.5333488022316</v>
       </c>
       <c r="I30" t="n">
         <v>25.99333570415189</v>
       </c>
       <c r="J30" t="n">
-        <v>40.74452089303865</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="K30" t="n">
-        <v>40.74452089303865</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="L30" t="n">
-        <v>306.3070801918771</v>
+        <v>291.5558950029903</v>
       </c>
       <c r="M30" t="n">
-        <v>627.9746095307568</v>
+        <v>613.22342434187</v>
       </c>
       <c r="N30" t="n">
-        <v>949.6421388696365</v>
+        <v>934.8909536807496</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.405017659058</v>
+        <v>995.3912882972036</v>
       </c>
       <c r="P30" t="n">
-        <v>1299.666785207595</v>
+        <v>1209.343300471844</v>
       </c>
       <c r="Q30" t="n">
         <v>1299.666785207595</v>
@@ -6567,25 +6567,25 @@
         <v>1208.883641076363</v>
       </c>
       <c r="S30" t="n">
-        <v>1055.927722353654</v>
+        <v>1038.573554355003</v>
       </c>
       <c r="T30" t="n">
-        <v>854.4154063296351</v>
+        <v>837.061238330984</v>
       </c>
       <c r="U30" t="n">
-        <v>854.4154063296351</v>
+        <v>721.4654139566385</v>
       </c>
       <c r="V30" t="n">
-        <v>619.2632980978924</v>
+        <v>721.4654139566385</v>
       </c>
       <c r="W30" t="n">
-        <v>619.2632980978924</v>
+        <v>467.2280572284368</v>
       </c>
       <c r="X30" t="n">
-        <v>619.2632980978924</v>
+        <v>467.2280572284368</v>
       </c>
       <c r="Y30" t="n">
-        <v>619.2632980978924</v>
+        <v>259.4677584634829</v>
       </c>
     </row>
     <row r="31">
@@ -6649,22 +6649,22 @@
         <v>256.9020226018642</v>
       </c>
       <c r="T31" t="n">
-        <v>27.25318829007981</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="U31" t="n">
-        <v>27.25318829007981</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="V31" t="n">
-        <v>27.25318829007981</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="W31" t="n">
-        <v>27.25318829007981</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="X31" t="n">
-        <v>27.25318829007981</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="Y31" t="n">
-        <v>25.99333570415189</v>
+        <v>207.6418005343916</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>839.725026899458</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="C32" t="n">
-        <v>839.725026899458</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="D32" t="n">
-        <v>839.725026899458</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="E32" t="n">
-        <v>511.5263437662271</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="F32" t="n">
-        <v>183.3276606329961</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="G32" t="n">
-        <v>183.3276606329961</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="H32" t="n">
         <v>25.99333570415189</v>
@@ -6722,28 +6722,28 @@
         <v>1299.666785207595</v>
       </c>
       <c r="R32" t="n">
-        <v>1167.923710032689</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="S32" t="n">
-        <v>1167.923710032689</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="T32" t="n">
-        <v>1167.923710032689</v>
+        <v>1299.666785207595</v>
       </c>
       <c r="U32" t="n">
-        <v>1167.923710032689</v>
+        <v>1045.807299794244</v>
       </c>
       <c r="V32" t="n">
-        <v>839.725026899458</v>
+        <v>717.6086166610125</v>
       </c>
       <c r="W32" t="n">
-        <v>839.725026899458</v>
+        <v>389.4099335277816</v>
       </c>
       <c r="X32" t="n">
-        <v>839.725026899458</v>
+        <v>61.21125039455058</v>
       </c>
       <c r="Y32" t="n">
-        <v>839.725026899458</v>
+        <v>25.99333570415189</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>396.7398863470443</v>
+        <v>608.8486257031274</v>
       </c>
       <c r="C33" t="n">
-        <v>222.2868570659173</v>
+        <v>608.8486257031274</v>
       </c>
       <c r="D33" t="n">
-        <v>222.2868570659173</v>
+        <v>459.9142160418761</v>
       </c>
       <c r="E33" t="n">
-        <v>222.2868570659173</v>
+        <v>300.6767610364206</v>
       </c>
       <c r="F33" t="n">
-        <v>222.2868570659173</v>
+        <v>154.1422030633056</v>
       </c>
       <c r="G33" t="n">
-        <v>222.2868570659173</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="H33" t="n">
-        <v>110.5333488022316</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="I33" t="n">
         <v>25.99333570415189</v>
@@ -6780,13 +6780,13 @@
         <v>40.74452089303865</v>
       </c>
       <c r="K33" t="n">
-        <v>120.3983208700641</v>
+        <v>40.74452089303865</v>
       </c>
       <c r="L33" t="n">
+        <v>64.29335083002286</v>
+      </c>
+      <c r="M33" t="n">
         <v>385.9608801689025</v>
-      </c>
-      <c r="M33" t="n">
-        <v>707.6284095077822</v>
       </c>
       <c r="N33" t="n">
         <v>707.6284095077822</v>
@@ -6801,28 +6801,28 @@
         <v>1299.666785207595</v>
       </c>
       <c r="R33" t="n">
-        <v>1299.666785207595</v>
+        <v>1208.883641076363</v>
       </c>
       <c r="S33" t="n">
-        <v>1299.666785207595</v>
+        <v>1038.573554355003</v>
       </c>
       <c r="T33" t="n">
-        <v>1098.154469183576</v>
+        <v>837.061238330984</v>
       </c>
       <c r="U33" t="n">
-        <v>869.941856555719</v>
+        <v>608.8486257031274</v>
       </c>
       <c r="V33" t="n">
-        <v>772.7155221320661</v>
+        <v>608.8486257031274</v>
       </c>
       <c r="W33" t="n">
-        <v>772.7155221320661</v>
+        <v>608.8486257031274</v>
       </c>
       <c r="X33" t="n">
-        <v>772.7155221320661</v>
+        <v>608.8486257031274</v>
       </c>
       <c r="Y33" t="n">
-        <v>564.9552233671122</v>
+        <v>608.8486257031274</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1068.758098309882</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="C34" t="n">
-        <v>1068.758098309882</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="D34" t="n">
-        <v>1068.758098309882</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="E34" t="n">
-        <v>1068.758098309882</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="F34" t="n">
-        <v>1068.758098309882</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="G34" t="n">
-        <v>1068.758098309882</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="H34" t="n">
-        <v>1068.758098309882</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="I34" t="n">
-        <v>1068.758098309882</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="J34" t="n">
-        <v>1068.758098309882</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="K34" t="n">
-        <v>1068.758098309882</v>
+        <v>25.99333570415189</v>
       </c>
       <c r="L34" t="n">
-        <v>1116.508147792399</v>
+        <v>73.74338518666889</v>
       </c>
       <c r="M34" t="n">
-        <v>1177.243003015259</v>
+        <v>134.4782404095286</v>
       </c>
       <c r="N34" t="n">
-        <v>1241.968335551848</v>
+        <v>199.2035729461179</v>
       </c>
       <c r="O34" t="n">
-        <v>1285.736360733541</v>
+        <v>242.9715981278102</v>
       </c>
       <c r="P34" t="n">
-        <v>1299.666785207595</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="Q34" t="n">
-        <v>1299.666785207595</v>
+        <v>256.9020226018642</v>
       </c>
       <c r="R34" t="n">
-        <v>1299.666785207595</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="S34" t="n">
-        <v>1299.666785207595</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="T34" t="n">
-        <v>1299.666785207595</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="U34" t="n">
-        <v>1299.666785207595</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="V34" t="n">
-        <v>1299.666785207595</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="W34" t="n">
-        <v>1068.758098309882</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="X34" t="n">
-        <v>1068.758098309882</v>
+        <v>84.12378964245306</v>
       </c>
       <c r="Y34" t="n">
-        <v>1068.758098309882</v>
+        <v>84.12378964245306</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>841.5291859230989</v>
+        <v>453.228685150791</v>
       </c>
       <c r="C35" t="n">
-        <v>841.5291859230989</v>
+        <v>453.228685150791</v>
       </c>
       <c r="D35" t="n">
-        <v>568.2344386111026</v>
+        <v>453.228685150791</v>
       </c>
       <c r="E35" t="n">
-        <v>568.2344386111026</v>
+        <v>453.228685150791</v>
       </c>
       <c r="F35" t="n">
         <v>294.9396912991064</v>
@@ -6938,49 +6938,49 @@
         <v>21.64494398711011</v>
       </c>
       <c r="K35" t="n">
-        <v>124.599611419392</v>
+        <v>163.6395119869712</v>
       </c>
       <c r="L35" t="n">
-        <v>353.0330565840371</v>
+        <v>196.1067604994479</v>
       </c>
       <c r="M35" t="n">
-        <v>620.8892384245246</v>
+        <v>463.9629423399354</v>
       </c>
       <c r="N35" t="n">
-        <v>881.4215567850579</v>
+        <v>724.4952607004686</v>
       </c>
       <c r="O35" t="n">
-        <v>1082.247199355505</v>
+        <v>925.320903270916</v>
       </c>
       <c r="P35" t="n">
-        <v>1082.247199355505</v>
+        <v>1059.046560031807</v>
       </c>
       <c r="Q35" t="n">
         <v>1082.247199355505</v>
       </c>
       <c r="R35" t="n">
-        <v>1082.247199355505</v>
+        <v>950.5041241805998</v>
       </c>
       <c r="S35" t="n">
-        <v>1082.247199355505</v>
+        <v>950.5041241805998</v>
       </c>
       <c r="T35" t="n">
-        <v>1082.247199355505</v>
+        <v>726.5234324627872</v>
       </c>
       <c r="U35" t="n">
-        <v>1082.247199355505</v>
+        <v>726.5234324627872</v>
       </c>
       <c r="V35" t="n">
-        <v>1082.247199355505</v>
+        <v>726.5234324627872</v>
       </c>
       <c r="W35" t="n">
-        <v>1082.247199355505</v>
+        <v>453.228685150791</v>
       </c>
       <c r="X35" t="n">
-        <v>1082.247199355505</v>
+        <v>453.228685150791</v>
       </c>
       <c r="Y35" t="n">
-        <v>841.5291859230989</v>
+        <v>453.228685150791</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>72.34966161245347</v>
+        <v>35.81451648833979</v>
       </c>
       <c r="C36" t="n">
-        <v>72.34966161245347</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="D36" t="n">
-        <v>72.34966161245347</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="E36" t="n">
-        <v>72.34966161245347</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="F36" t="n">
-        <v>72.34966161245347</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="G36" t="n">
-        <v>72.34966161245347</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="H36" t="n">
         <v>21.64494398711011</v>
@@ -7020,13 +7020,13 @@
         <v>188.2290973128227</v>
       </c>
       <c r="L36" t="n">
-        <v>453.7916566116612</v>
+        <v>188.2290973128227</v>
       </c>
       <c r="M36" t="n">
-        <v>721.6478384521488</v>
+        <v>242.2593387641392</v>
       </c>
       <c r="N36" t="n">
-        <v>777.9717024451143</v>
+        <v>510.1155206046267</v>
       </c>
       <c r="O36" t="n">
         <v>777.9717024451143</v>
@@ -7041,25 +7041,25 @@
         <v>991.4640552242734</v>
       </c>
       <c r="S36" t="n">
-        <v>991.4640552242734</v>
+        <v>821.1539685029135</v>
       </c>
       <c r="T36" t="n">
-        <v>789.9517392002545</v>
+        <v>619.6416524788946</v>
       </c>
       <c r="U36" t="n">
-        <v>561.7391265723978</v>
+        <v>619.6416524788946</v>
       </c>
       <c r="V36" t="n">
-        <v>326.5870183406551</v>
+        <v>619.6416524788946</v>
       </c>
       <c r="W36" t="n">
-        <v>72.34966161245347</v>
+        <v>619.6416524788946</v>
       </c>
       <c r="X36" t="n">
-        <v>72.34966161245347</v>
+        <v>411.7901522733617</v>
       </c>
       <c r="Y36" t="n">
-        <v>72.34966161245347</v>
+        <v>204.0298535084078</v>
       </c>
     </row>
     <row r="37">
@@ -7117,13 +7117,13 @@
         <v>252.5536308848224</v>
       </c>
       <c r="R37" t="n">
-        <v>252.5536308848224</v>
+        <v>79.77539792541128</v>
       </c>
       <c r="S37" t="n">
-        <v>252.5536308848224</v>
+        <v>79.77539792541128</v>
       </c>
       <c r="T37" t="n">
-        <v>22.90479657303803</v>
+        <v>79.77539792541128</v>
       </c>
       <c r="U37" t="n">
         <v>21.64494398711011</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21.64494398711011</v>
+        <v>294.9396912991064</v>
       </c>
       <c r="C38" t="n">
         <v>21.64494398711011</v>
@@ -7175,22 +7175,22 @@
         <v>35.82335567907431</v>
       </c>
       <c r="K38" t="n">
-        <v>177.8179236789354</v>
+        <v>124.599611419392</v>
       </c>
       <c r="L38" t="n">
-        <v>406.2513688435805</v>
+        <v>353.0330565840371</v>
       </c>
       <c r="M38" t="n">
-        <v>674.107550684068</v>
+        <v>620.8892384245246</v>
       </c>
       <c r="N38" t="n">
-        <v>934.6398690446013</v>
+        <v>881.4215567850579</v>
       </c>
       <c r="O38" t="n">
-        <v>1059.046560031807</v>
+        <v>1082.247199355505</v>
       </c>
       <c r="P38" t="n">
-        <v>1059.046560031807</v>
+        <v>1082.247199355505</v>
       </c>
       <c r="Q38" t="n">
         <v>1082.247199355505</v>
@@ -7199,25 +7199,25 @@
         <v>1082.247199355505</v>
       </c>
       <c r="S38" t="n">
-        <v>878.2404626415693</v>
+        <v>1082.247199355505</v>
       </c>
       <c r="T38" t="n">
-        <v>654.2597709237567</v>
+        <v>1082.247199355505</v>
       </c>
       <c r="U38" t="n">
-        <v>400.4002855104058</v>
+        <v>1082.247199355505</v>
       </c>
       <c r="V38" t="n">
-        <v>127.1055381984095</v>
+        <v>841.5291859230989</v>
       </c>
       <c r="W38" t="n">
-        <v>21.64494398711011</v>
+        <v>568.2344386111026</v>
       </c>
       <c r="X38" t="n">
-        <v>21.64494398711011</v>
+        <v>294.9396912991064</v>
       </c>
       <c r="Y38" t="n">
-        <v>21.64494398711011</v>
+        <v>294.9396912991064</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>411.8813537139407</v>
+        <v>120.1025835015661</v>
       </c>
       <c r="C39" t="n">
-        <v>411.8813537139407</v>
+        <v>120.1025835015661</v>
       </c>
       <c r="D39" t="n">
-        <v>411.8813537139407</v>
+        <v>120.1025835015661</v>
       </c>
       <c r="E39" t="n">
-        <v>252.6438987084852</v>
+        <v>120.1025835015661</v>
       </c>
       <c r="F39" t="n">
-        <v>252.6438987084852</v>
+        <v>120.1025835015661</v>
       </c>
       <c r="G39" t="n">
-        <v>217.9384653488755</v>
+        <v>120.1025835015661</v>
       </c>
       <c r="H39" t="n">
         <v>106.1849570851898</v>
@@ -7251,25 +7251,25 @@
         <v>21.64494398711011</v>
       </c>
       <c r="J39" t="n">
-        <v>36.39612917599687</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="K39" t="n">
-        <v>36.39612917599687</v>
+        <v>21.64494398711011</v>
       </c>
       <c r="L39" t="n">
-        <v>36.39612917599687</v>
+        <v>287.2075032859485</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2523110164844</v>
+        <v>555.063685126436</v>
       </c>
       <c r="N39" t="n">
-        <v>572.1084928569719</v>
+        <v>724.0675327792671</v>
       </c>
       <c r="O39" t="n">
-        <v>839.9646746974595</v>
+        <v>991.9237146197547</v>
       </c>
       <c r="P39" t="n">
-        <v>1053.9166868721</v>
+        <v>991.9237146197547</v>
       </c>
       <c r="Q39" t="n">
         <v>1082.247199355505</v>
@@ -7278,25 +7278,25 @@
         <v>991.4640552242734</v>
       </c>
       <c r="S39" t="n">
-        <v>821.1539685029135</v>
+        <v>991.4640552242734</v>
       </c>
       <c r="T39" t="n">
-        <v>619.6416524788946</v>
+        <v>789.9517392002545</v>
       </c>
       <c r="U39" t="n">
-        <v>619.6416524788946</v>
+        <v>789.9517392002545</v>
       </c>
       <c r="V39" t="n">
-        <v>619.6416524788946</v>
+        <v>789.9517392002545</v>
       </c>
       <c r="W39" t="n">
-        <v>619.6416524788946</v>
+        <v>535.7143824720529</v>
       </c>
       <c r="X39" t="n">
-        <v>619.6416524788946</v>
+        <v>327.86288226652</v>
       </c>
       <c r="Y39" t="n">
-        <v>411.8813537139407</v>
+        <v>120.1025835015661</v>
       </c>
     </row>
     <row r="40">
@@ -7351,7 +7351,7 @@
         <v>252.5536308848224</v>
       </c>
       <c r="Q40" t="n">
-        <v>177.2650110228348</v>
+        <v>194.4231769465212</v>
       </c>
       <c r="R40" t="n">
         <v>21.64494398711011</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21.08546861543596</v>
+        <v>830.2927390539853</v>
       </c>
       <c r="C41" t="n">
-        <v>21.08546861543596</v>
+        <v>564.0620747176727</v>
       </c>
       <c r="D41" t="n">
-        <v>21.08546861543596</v>
+        <v>297.8314103813601</v>
       </c>
       <c r="E41" t="n">
-        <v>21.08546861543596</v>
+        <v>297.8314103813601</v>
       </c>
       <c r="F41" t="n">
-        <v>21.08546861543596</v>
+        <v>31.60074604504746</v>
       </c>
       <c r="G41" t="n">
         <v>21.08546861543596</v>
@@ -7409,22 +7409,22 @@
         <v>21.08546861543596</v>
       </c>
       <c r="J41" t="n">
-        <v>21.08546861543596</v>
+        <v>35.26388030740016</v>
       </c>
       <c r="K41" t="n">
-        <v>21.08546861543596</v>
+        <v>177.2584483072613</v>
       </c>
       <c r="L41" t="n">
-        <v>249.518913780081</v>
+        <v>375.8821422106554</v>
       </c>
       <c r="M41" t="n">
-        <v>510.451587896101</v>
+        <v>636.8148163266753</v>
       </c>
       <c r="N41" t="n">
-        <v>696.5214921167615</v>
+        <v>897.3471346872086</v>
       </c>
       <c r="O41" t="n">
-        <v>897.3471346872088</v>
+        <v>897.3471346872086</v>
       </c>
       <c r="P41" t="n">
         <v>1031.0727914481</v>
@@ -7433,28 +7433,28 @@
         <v>1054.273430771798</v>
       </c>
       <c r="R41" t="n">
-        <v>922.5303555968926</v>
+        <v>1054.273430771798</v>
       </c>
       <c r="S41" t="n">
-        <v>922.5303555968926</v>
+        <v>1054.273430771798</v>
       </c>
       <c r="T41" t="n">
-        <v>698.5496638790801</v>
+        <v>830.2927390539853</v>
       </c>
       <c r="U41" t="n">
-        <v>444.6901784657291</v>
+        <v>830.2927390539853</v>
       </c>
       <c r="V41" t="n">
-        <v>444.6901784657291</v>
+        <v>830.2927390539853</v>
       </c>
       <c r="W41" t="n">
-        <v>444.6901784657291</v>
+        <v>830.2927390539853</v>
       </c>
       <c r="X41" t="n">
-        <v>444.6901784657291</v>
+        <v>830.2927390539853</v>
       </c>
       <c r="Y41" t="n">
-        <v>178.4595141294164</v>
+        <v>830.2927390539853</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21.08546861543596</v>
+        <v>38.12791028781106</v>
       </c>
       <c r="C42" t="n">
-        <v>21.08546861543596</v>
+        <v>38.12791028781106</v>
       </c>
       <c r="D42" t="n">
-        <v>21.08546861543596</v>
+        <v>38.12791028781106</v>
       </c>
       <c r="E42" t="n">
-        <v>21.08546861543596</v>
+        <v>38.12791028781106</v>
       </c>
       <c r="F42" t="n">
-        <v>21.08546861543596</v>
+        <v>38.12791028781106</v>
       </c>
       <c r="G42" t="n">
-        <v>21.08546861543596</v>
+        <v>38.12791028781106</v>
       </c>
       <c r="H42" t="n">
-        <v>21.08546861543596</v>
+        <v>38.12791028781106</v>
       </c>
       <c r="I42" t="n">
         <v>21.08546861543596</v>
@@ -7494,46 +7494,46 @@
         <v>35.83665380432272</v>
       </c>
       <c r="L42" t="n">
-        <v>296.7693279203427</v>
+        <v>181.1519236879875</v>
       </c>
       <c r="M42" t="n">
-        <v>557.7020020363627</v>
+        <v>442.0845978040074</v>
       </c>
       <c r="N42" t="n">
-        <v>818.6346761523828</v>
+        <v>703.0172719200274</v>
       </c>
       <c r="O42" t="n">
-        <v>963.9499460360475</v>
+        <v>963.9499460360473</v>
       </c>
       <c r="P42" t="n">
-        <v>963.9499460360475</v>
+        <v>963.9499460360473</v>
       </c>
       <c r="Q42" t="n">
         <v>1054.273430771798</v>
       </c>
       <c r="R42" t="n">
-        <v>963.4902866405662</v>
+        <v>963.490286640566</v>
       </c>
       <c r="S42" t="n">
-        <v>793.1801999192063</v>
+        <v>963.490286640566</v>
       </c>
       <c r="T42" t="n">
-        <v>591.6678838951874</v>
+        <v>963.490286640566</v>
       </c>
       <c r="U42" t="n">
-        <v>363.4552712673308</v>
+        <v>735.2776740127093</v>
       </c>
       <c r="V42" t="n">
-        <v>128.3031630355881</v>
+        <v>500.1255657809666</v>
       </c>
       <c r="W42" t="n">
-        <v>128.3031630355881</v>
+        <v>245.888209052765</v>
       </c>
       <c r="X42" t="n">
-        <v>128.3031630355881</v>
+        <v>245.888209052765</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.08546861543596</v>
+        <v>38.12791028781106</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
       <c r="C43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
       <c r="D43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
       <c r="E43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
       <c r="F43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
       <c r="G43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
       <c r="H43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
       <c r="I43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
       <c r="J43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
       <c r="K43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
       <c r="L43" t="n">
-        <v>68.83551809795296</v>
+        <v>871.1147933566025</v>
       </c>
       <c r="M43" t="n">
-        <v>129.5703733208126</v>
+        <v>931.8496485794622</v>
       </c>
       <c r="N43" t="n">
-        <v>194.2957058574019</v>
+        <v>996.5749811160515</v>
       </c>
       <c r="O43" t="n">
-        <v>238.0637310390942</v>
+        <v>1040.343006297744</v>
       </c>
       <c r="P43" t="n">
-        <v>251.9941555131483</v>
+        <v>1054.273430771798</v>
       </c>
       <c r="Q43" t="n">
-        <v>251.9941555131483</v>
+        <v>1054.273430771798</v>
       </c>
       <c r="R43" t="n">
-        <v>251.9941555131483</v>
+        <v>1054.273430771798</v>
       </c>
       <c r="S43" t="n">
-        <v>251.9941555131483</v>
+        <v>1054.273430771798</v>
       </c>
       <c r="T43" t="n">
-        <v>251.9941555131483</v>
+        <v>1054.273430771798</v>
       </c>
       <c r="U43" t="n">
-        <v>251.9941555131483</v>
+        <v>1054.273430771798</v>
       </c>
       <c r="V43" t="n">
-        <v>21.08546861543596</v>
+        <v>1054.273430771798</v>
       </c>
       <c r="W43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
       <c r="X43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.08546861543596</v>
+        <v>823.3647438740855</v>
       </c>
     </row>
     <row r="44">
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>154.7749872003928</v>
       </c>
       <c r="K11" t="n">
         <v>180.7165560056485</v>
       </c>
       <c r="L11" t="n">
-        <v>186.9203608487888</v>
+        <v>241.2752573118111</v>
       </c>
       <c r="M11" t="n">
-        <v>190.3977082330412</v>
+        <v>175.9955863904058</v>
       </c>
       <c r="N11" t="n">
         <v>228.5378629350739</v>
@@ -8705,7 +8705,7 @@
         <v>232.3008933111744</v>
       </c>
       <c r="P11" t="n">
-        <v>241.0771836639077</v>
+        <v>215.4460370152017</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.4534989939586</v>
+        <v>111.0986025309363</v>
       </c>
       <c r="L12" t="n">
-        <v>156.9502323737154</v>
+        <v>102.5953359106931</v>
       </c>
       <c r="M12" t="n">
-        <v>137.4300777759015</v>
+        <v>100.1715258052101</v>
       </c>
       <c r="N12" t="n">
-        <v>88.26858124001302</v>
+        <v>125.5271332107044</v>
       </c>
       <c r="O12" t="n">
-        <v>103.1927447419605</v>
+        <v>157.5476412049828</v>
       </c>
       <c r="P12" t="n">
-        <v>102.3496250291892</v>
+        <v>156.7045214922115</v>
       </c>
       <c r="Q12" t="n">
         <v>173.1963410314467</v>
@@ -8933,13 +8933,13 @@
         <v>241.2752573118111</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3504828534281</v>
+        <v>204.7193362047221</v>
       </c>
       <c r="N14" t="n">
-        <v>202.906716286368</v>
+        <v>174.1829664720516</v>
       </c>
       <c r="O14" t="n">
-        <v>177.945996848152</v>
+        <v>232.3008933111744</v>
       </c>
       <c r="P14" t="n">
         <v>186.7222872008853</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>165.4534989939586</v>
+        <v>111.0986025309363</v>
       </c>
       <c r="L15" t="n">
-        <v>139.8538878813845</v>
+        <v>102.5953359106931</v>
       </c>
       <c r="M15" t="n">
         <v>154.5264222682324</v>
       </c>
       <c r="N15" t="n">
-        <v>142.6234777030353</v>
+        <v>142.6234777030354</v>
       </c>
       <c r="O15" t="n">
-        <v>103.1927447419605</v>
+        <v>157.5476412049828</v>
       </c>
       <c r="P15" t="n">
         <v>102.3496250291892</v>
       </c>
       <c r="Q15" t="n">
-        <v>118.8414445684244</v>
+        <v>156.0999965391158</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,22 +9167,22 @@
         <v>180.7165560056485</v>
       </c>
       <c r="L17" t="n">
-        <v>208.0333615183237</v>
+        <v>248.268699457738</v>
       </c>
       <c r="M17" t="n">
-        <v>237.3439249993549</v>
+        <v>237.343924999355</v>
       </c>
       <c r="N17" t="n">
         <v>235.5313050810008</v>
       </c>
       <c r="O17" t="n">
-        <v>239.2943354571012</v>
+        <v>222.4939867335435</v>
       </c>
       <c r="P17" t="n">
         <v>186.7222872008853</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>188.8800014440481</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9249,10 +9249,10 @@
         <v>163.9436745196422</v>
       </c>
       <c r="M18" t="n">
-        <v>144.1409566028009</v>
+        <v>161.5198644141592</v>
       </c>
       <c r="N18" t="n">
-        <v>149.6169198489622</v>
+        <v>88.26858124001302</v>
       </c>
       <c r="O18" t="n">
         <v>103.1927447419605</v>
@@ -9261,7 +9261,7 @@
         <v>102.3496250291892</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.8414445684244</v>
+        <v>162.8108753660152</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>111.1908482809273</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>111.0986025309363</v>
       </c>
       <c r="L21" t="n">
-        <v>102.5953359106931</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>425.0882221071087</v>
+        <v>195.5300966798688</v>
       </c>
       <c r="N21" t="n">
         <v>413.1852775419117</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>280.1186742317643</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>118.8414445684244</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0986025309363</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>189.1285419458435</v>
       </c>
       <c r="M24" t="n">
-        <v>425.0882221071087</v>
+        <v>425.0882221071088</v>
       </c>
       <c r="N24" t="n">
         <v>413.1852775419117</v>
       </c>
       <c r="O24" t="n">
-        <v>149.4040067900081</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>102.3496250291892</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0986025309363</v>
+        <v>248.5457077464087</v>
       </c>
       <c r="L27" t="n">
-        <v>126.3820328167377</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>425.0882221071087</v>
@@ -9966,13 +9966,13 @@
         <v>413.1852775419117</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>103.1927447419605</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>118.8414445684244</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>111.1908482809273</v>
       </c>
       <c r="K30" t="n">
         <v>111.0986025309363</v>
@@ -10203,13 +10203,13 @@
         <v>413.1852775419117</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>164.3041938494898</v>
       </c>
       <c r="P30" t="n">
-        <v>165.2402993206404</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>118.8414445684244</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>191.5569863461135</v>
+        <v>111.0986025309363</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>126.3820328167377</v>
       </c>
       <c r="M33" t="n">
         <v>425.0882221071087</v>
       </c>
       <c r="N33" t="n">
-        <v>88.26858124001302</v>
+        <v>413.1852775419117</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10586,10 +10586,10 @@
         <v>154.7749872003928</v>
       </c>
       <c r="K35" t="n">
-        <v>284.71116957361</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>219.715561366442</v>
       </c>
       <c r="M35" t="n">
         <v>446.5573862292821</v>
@@ -10601,10 +10601,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>186.7222872008853</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>188.8800014440481</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>102.5953359106931</v>
       </c>
       <c r="M36" t="n">
-        <v>370.7333256440863</v>
+        <v>154.7475272711863</v>
       </c>
       <c r="N36" t="n">
-        <v>145.1613731520994</v>
+        <v>358.8303810788893</v>
       </c>
       <c r="O36" t="n">
-        <v>103.1927447419605</v>
+        <v>373.7545445808368</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>270.389541601929</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10835,13 +10835,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>303.6093210776531</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>186.7222872008853</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>188.8800014440481</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>111.1908482809273</v>
       </c>
       <c r="K39" t="n">
         <v>111.0986025309363</v>
       </c>
       <c r="L39" t="n">
-        <v>102.5953359106931</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>370.7333256440863</v>
       </c>
       <c r="N39" t="n">
-        <v>358.8303810788893</v>
+        <v>258.979538465095</v>
       </c>
       <c r="O39" t="n">
         <v>373.7545445808368</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>102.3496250291892</v>
       </c>
       <c r="Q39" t="n">
-        <v>147.4581238445913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>154.7749872003928</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>180.7165560056485</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>387.550354690601</v>
       </c>
       <c r="M41" t="n">
-        <v>439.5639440833553</v>
+        <v>439.5639440833552</v>
       </c>
       <c r="N41" t="n">
-        <v>362.1323646747389</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>177.945996848152</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,16 +11142,16 @@
         <v>111.0986025309363</v>
       </c>
       <c r="L42" t="n">
-        <v>366.1636936036426</v>
+        <v>249.3784368032838</v>
       </c>
       <c r="M42" t="n">
         <v>363.7398834981595</v>
       </c>
       <c r="N42" t="n">
-        <v>351.8369389329625</v>
+        <v>351.8369389329624</v>
       </c>
       <c r="O42" t="n">
-        <v>249.9758456345511</v>
+        <v>366.76110243491</v>
       </c>
       <c r="P42" t="n">
         <v>102.3496250291892</v>
@@ -23258,7 +23258,7 @@
         <v>328.3789452004582</v>
       </c>
       <c r="C11" t="n">
-        <v>317.3970989663775</v>
+        <v>310.9179953079852</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>294.8860722543907</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>315.3762042154467</v>
+        <v>321.855307873839</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>331.8830421930313</v>
       </c>
     </row>
     <row r="12">
@@ -23337,25 +23337,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>118.3536025252934</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>103.2901839923786</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>97.19341958875378</v>
       </c>
       <c r="G12" t="n">
         <v>137.1779043563795</v>
       </c>
       <c r="H12" t="n">
-        <v>62.76018037641873</v>
+        <v>110.6359731810488</v>
       </c>
       <c r="I12" t="n">
-        <v>29.33971650407658</v>
+        <v>83.69461296709891</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.52041622689728</v>
+        <v>89.87531268991961</v>
       </c>
       <c r="S12" t="n">
         <v>168.6069858541462</v>
@@ -23428,19 +23428,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>126.1146609447391</v>
+        <v>113.497238681484</v>
       </c>
       <c r="H13" t="n">
-        <v>106.6378247603674</v>
+        <v>106.6378247603673</v>
       </c>
       <c r="I13" t="n">
-        <v>96.92015428464799</v>
+        <v>96.92015428464796</v>
       </c>
       <c r="J13" t="n">
-        <v>29.18799772721285</v>
+        <v>35.66710138560509</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>6.138318604862867</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23583,7 +23583,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>97.19341958875381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.1779043563795</v>
@@ -23592,7 +23592,7 @@
         <v>110.6359731810488</v>
       </c>
       <c r="I15" t="n">
-        <v>83.69461296709892</v>
+        <v>83.69461296709891</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,22 +23622,22 @@
         <v>89.87531268991961</v>
       </c>
       <c r="S15" t="n">
-        <v>114.2520893911239</v>
+        <v>168.6069858541462</v>
       </c>
       <c r="T15" t="n">
-        <v>145.1422964007564</v>
+        <v>199.4971928637787</v>
       </c>
       <c r="U15" t="n">
         <v>171.5755900385557</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>178.4456906864029</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>197.3400866978972</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>157.8971923988474</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23668,13 +23668,13 @@
         <v>113.497238681484</v>
       </c>
       <c r="H16" t="n">
-        <v>113.1169284187596</v>
+        <v>106.6378247603673</v>
       </c>
       <c r="I16" t="n">
-        <v>96.92015428464799</v>
+        <v>96.92015428464796</v>
       </c>
       <c r="J16" t="n">
-        <v>29.18799772721285</v>
+        <v>35.66710138560509</v>
       </c>
       <c r="K16" t="n">
         <v>6.138318604862867</v>
@@ -23732,10 +23732,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>311.2372751242452</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>293.3347030117338</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23750,7 +23750,7 @@
         <v>336.3048345808355</v>
       </c>
       <c r="I17" t="n">
-        <v>198.5427590062217</v>
+        <v>144.5071423594593</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.07730581420721</v>
+        <v>130.4256444231564</v>
       </c>
       <c r="S17" t="n">
         <v>140.6183307378474</v>
       </c>
       <c r="T17" t="n">
-        <v>221.7408848006344</v>
+        <v>160.3925461916853</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3208905592175</v>
+        <v>189.9725519502683</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23808,13 +23808,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>112.497567003105</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>111.3601603793666</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>86.09672695568959</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23829,7 +23829,7 @@
         <v>110.6359731810488</v>
       </c>
       <c r="I18" t="n">
-        <v>83.69461296709892</v>
+        <v>83.69461296709891</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>89.87531268991961</v>
+        <v>28.52697408097045</v>
       </c>
       <c r="S18" t="n">
         <v>168.6069858541462</v>
       </c>
       <c r="T18" t="n">
-        <v>138.1488542548296</v>
+        <v>199.4971928637787</v>
       </c>
       <c r="U18" t="n">
-        <v>164.5821478926289</v>
+        <v>225.930486501578</v>
       </c>
       <c r="V18" t="n">
-        <v>171.4522485404761</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>197.6593665141572</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,25 +23935,25 @@
         <v>74.53573366336769</v>
       </c>
       <c r="R19" t="n">
-        <v>130.4464389685217</v>
+        <v>171.050450629817</v>
       </c>
       <c r="S19" t="n">
-        <v>160.2485834448701</v>
+        <v>221.5969220538193</v>
       </c>
       <c r="T19" t="n">
         <v>166.0040073597174</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3114560357299</v>
+        <v>224.9631174267807</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>190.7893047148788</v>
       </c>
       <c r="W19" t="n">
-        <v>225.1746597276418</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>185.1056437277418</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57.81714536158194</v>
+        <v>96.54721556076851</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>40.35619546910891</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>29.76634531878432</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23987,7 +23987,7 @@
         <v>336.3048345808355</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>198.5427590062217</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>130.4256444231564</v>
       </c>
       <c r="S20" t="n">
-        <v>114.3228022503062</v>
+        <v>201.9666693467966</v>
       </c>
       <c r="T20" t="n">
         <v>221.7408848006344</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>24.32427241551437</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>44.81440437657039</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>61.32124235415495</v>
       </c>
     </row>
     <row r="21">
@@ -24048,25 +24048,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>67.72931452930887</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.1779043563795</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>110.6359731810488</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>83.69461296709891</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>89.87531268991961</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.4971928637787</v>
+        <v>34.75639747789745</v>
       </c>
       <c r="U21" t="n">
         <v>225.930486501578</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>57.92339830785573</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>215.6947087123967</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>57.81714536158194</v>
+        <v>57.81714536158188</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>40.35619546910885</v>
       </c>
       <c r="D23" t="n">
-        <v>29.76634531878432</v>
+        <v>270.4630848647672</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>81.9593494398128</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>259.2322264778416</v>
+        <v>414.9932081573973</v>
       </c>
       <c r="H23" t="n">
         <v>336.3048345808355</v>
@@ -24251,10 +24251,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>130.4256444231564</v>
       </c>
       <c r="S23" t="n">
-        <v>201.9666693467966</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>221.7408848006344</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>24.32427241551432</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24300,10 +24300,10 @@
         <v>137.1779043563795</v>
       </c>
       <c r="H24" t="n">
-        <v>110.6359731810488</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>83.69461296709892</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.87531268991961</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.4971928637787</v>
       </c>
       <c r="U24" t="n">
-        <v>52.58528556334184</v>
+        <v>225.930486501578</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>39.78980565302822</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8521351445063</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>160.9927212233897</v>
+        <v>100.2452563391608</v>
       </c>
       <c r="I25" t="n">
         <v>151.2750507476703</v>
@@ -24415,7 +24415,7 @@
         <v>221.5969220538193</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>227.3523459686665</v>
       </c>
       <c r="U25" t="n">
         <v>286.3114560357299</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.3373992920262</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>195.3380734063007</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>40.35619546910891</v>
@@ -24491,13 +24491,13 @@
         <v>130.4256444231564</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>63.92512230203761</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3208905592175</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>2.835562168236265</v>
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>137.7470850743941</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>68.26813703759356</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.1779043563795</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>110.6359731810488</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>83.69461296709891</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>89.87531268991961</v>
       </c>
       <c r="S27" t="n">
-        <v>168.6069858541462</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>199.4971928637787</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.930486501578</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>13.18295473326037</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24643,10 +24643,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.98658426444953</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>171.050450629817</v>
       </c>
       <c r="S28" t="n">
         <v>221.5969220538193</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>96.54721556076851</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>40.35619546910891</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>29.76634531878432</v>
       </c>
       <c r="E29" t="n">
-        <v>122.9935768914418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>130.4256444231564</v>
       </c>
       <c r="S29" t="n">
         <v>201.9666693467966</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.7408848006344</v>
       </c>
       <c r="U29" t="n">
         <v>251.3208905592175</v>
       </c>
       <c r="V29" t="n">
-        <v>2.835562168236265</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>44.81440437657039</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>61.32124235415495</v>
       </c>
     </row>
     <row r="30">
@@ -24765,19 +24765,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.1779043563795</v>
       </c>
       <c r="H30" t="n">
         <v>110.6359731810488</v>
       </c>
       <c r="I30" t="n">
-        <v>83.69461296709891</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>17.18062631866465</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.930486501578</v>
+        <v>111.490620370976</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24889,7 +24889,7 @@
         <v>221.5969220538193</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>227.3523459686665</v>
       </c>
       <c r="U31" t="n">
         <v>286.3114560357299</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.3373992920262</v>
+        <v>169.8170335052969</v>
       </c>
     </row>
     <row r="32">
@@ -24923,16 +24923,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>57.01367377036314</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>81.9593494398128</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.9932081573973</v>
       </c>
       <c r="H32" t="n">
-        <v>180.5438529012798</v>
+        <v>336.3048345808355</v>
       </c>
       <c r="I32" t="n">
         <v>198.5427590062217</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>130.4256444231564</v>
       </c>
       <c r="S32" t="n">
         <v>201.9666693467966</v>
@@ -24971,19 +24971,19 @@
         <v>221.7408848006344</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3208905592175</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>2.835562168236265</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>24.32427241551437</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>44.81440437657039</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>351.3722031125589</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.1779043563795</v>
+        <v>10.3105256708174</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>110.6359731810488</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>83.69461296709891</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>89.87531268991961</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>168.6069858541462</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>136.5465160700089</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25090,7 @@
         <v>167.8521351445063</v>
       </c>
       <c r="H34" t="n">
-        <v>160.9927212233897</v>
+        <v>103.4435718244715</v>
       </c>
       <c r="I34" t="n">
         <v>151.2750507476703</v>
@@ -25120,7 +25120,7 @@
         <v>74.53573366336769</v>
       </c>
       <c r="R34" t="n">
-        <v>171.050450629817</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>221.5969220538193</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>57.92339830785573</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,13 +25157,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>84.12124178180665</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>136.3142459028351</v>
+        <v>250.1699418285437</v>
       </c>
       <c r="G35" t="n">
         <v>144.431408318521</v>
@@ -25199,13 +25199,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>130.4256444231564</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>201.9666693467966</v>
       </c>
       <c r="T35" t="n">
-        <v>221.7408848006344</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3208905592175</v>
@@ -25214,13 +25214,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>78.6791688785367</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>147.9271053579713</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>158.6806222120983</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25248,7 +25248,7 @@
         <v>137.1779043563795</v>
       </c>
       <c r="H36" t="n">
-        <v>60.43830273195887</v>
+        <v>110.6359731810488</v>
       </c>
       <c r="I36" t="n">
         <v>83.69461296709891</v>
@@ -25281,25 +25281,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>168.6069858541462</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.930486501578</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,16 +25357,16 @@
         <v>74.53573366336769</v>
       </c>
       <c r="R37" t="n">
-        <v>171.050450629817</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>221.5969220538193</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>227.3523459686665</v>
       </c>
       <c r="U37" t="n">
-        <v>285.0642019756612</v>
+        <v>228.7623066368117</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>94.71109193213124</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25439,22 +25439,22 @@
         <v>130.4256444231564</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>201.9666693467966</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.7408848006344</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3208905592175</v>
       </c>
       <c r="V38" t="n">
-        <v>57.19045863125859</v>
+        <v>89.44142517205265</v>
       </c>
       <c r="W38" t="n">
-        <v>244.8349804482266</v>
+        <v>78.6791688785367</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>99.16930083959272</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25476,16 +25476,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>102.819525330366</v>
+        <v>137.1779043563795</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>96.85752302883625</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.6069858541462</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25530,10 +25530,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>16.98658426444953</v>
       </c>
       <c r="R40" t="n">
-        <v>16.98658426444953</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>221.5969220538193</v>
@@ -25625,22 +25625,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>226.9335366046399</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>101.7045340780581</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>91.11468392773349</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>143.307688048762</v>
       </c>
       <c r="G41" t="n">
-        <v>414.9932081573973</v>
+        <v>404.5830835020819</v>
       </c>
       <c r="H41" t="n">
         <v>336.3048345808355</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>130.4256444231564</v>
       </c>
       <c r="S41" t="n">
         <v>201.9666693467966</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3208905592175</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.6695809631041</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25725,7 +25725,7 @@
         <v>110.6359731810488</v>
       </c>
       <c r="I42" t="n">
-        <v>83.69461296709891</v>
+        <v>66.82259571144755</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,10 +25755,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>168.6069858541462</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.4971928637787</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>99.53717830135379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25843,10 +25843,10 @@
         <v>286.3114560357299</v>
       </c>
       <c r="V43" t="n">
-        <v>23.53804329509285</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>57.92339830785585</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354477.150453125</v>
+        <v>354477.1504531248</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354477.150453125</v>
+        <v>354477.1504531248</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>359775.62534601</v>
+        <v>359775.6253460099</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>541553.646155964</v>
+        <v>541553.6461559639</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>541553.6461559638</v>
+        <v>541553.6461559639</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>541553.6461559638</v>
+        <v>541553.6461559639</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499275.0015307765</v>
+        <v>499275.0015307764</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26314,7 @@
         <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
         <v>471083.894762297</v>
@@ -26326,22 +26326,22 @@
         <v>145630.468016645</v>
       </c>
       <c r="G2" t="n">
-        <v>147723.5274838442</v>
+        <v>147723.5274838443</v>
       </c>
       <c r="H2" t="n">
-        <v>219531.3995747206</v>
+        <v>219531.3995747205</v>
       </c>
       <c r="I2" t="n">
         <v>219531.3995747206</v>
       </c>
       <c r="J2" t="n">
-        <v>219531.3995747205</v>
+        <v>219531.3995747206</v>
       </c>
       <c r="K2" t="n">
         <v>219531.3995747206</v>
       </c>
       <c r="L2" t="n">
-        <v>219531.3995747206</v>
+        <v>219531.3995747205</v>
       </c>
       <c r="M2" t="n">
         <v>204733.9247488327</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>78087.53390653647</v>
+        <v>78087.5339065365</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1916.797590566347</v>
+        <v>1916.797590566353</v>
       </c>
       <c r="H3" t="n">
         <v>71113.11502077701</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403276.1226809025</v>
+        <v>404021.6580598142</v>
       </c>
       <c r="C4" t="n">
-        <v>403276.1226809025</v>
+        <v>404021.6580598142</v>
       </c>
       <c r="D4" t="n">
-        <v>403276.1226809025</v>
+        <v>404021.6580598142</v>
       </c>
       <c r="E4" t="n">
-        <v>56214.35500537971</v>
+        <v>56931.58887167383</v>
       </c>
       <c r="F4" t="n">
-        <v>56214.35500537971</v>
+        <v>56931.58887167383</v>
       </c>
       <c r="G4" t="n">
-        <v>57228.40155112037</v>
+        <v>57958.51326302801</v>
       </c>
       <c r="H4" t="n">
-        <v>92017.91699101258</v>
+        <v>93189.83683360829</v>
       </c>
       <c r="I4" t="n">
-        <v>92017.91699101256</v>
+        <v>93189.83683360829</v>
       </c>
       <c r="J4" t="n">
-        <v>92017.91699101256</v>
+        <v>93189.83683360829</v>
       </c>
       <c r="K4" t="n">
-        <v>92017.91699101256</v>
+        <v>93189.83683360829</v>
       </c>
       <c r="L4" t="n">
-        <v>92017.91699101256</v>
+        <v>93189.83683360828</v>
       </c>
       <c r="M4" t="n">
-        <v>84848.82864544593</v>
+        <v>85929.70492274206</v>
       </c>
       <c r="N4" t="n">
-        <v>84848.82864544592</v>
+        <v>85929.70492274206</v>
       </c>
       <c r="O4" t="n">
-        <v>83926.43511981633</v>
+        <v>84995.59749554862</v>
       </c>
       <c r="P4" t="n">
-        <v>47634.95419839011</v>
+        <v>48243.23428981753</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>4983.278029624088</v>
+        <v>4983.278029624089</v>
       </c>
       <c r="F5" t="n">
-        <v>4983.278029624088</v>
+        <v>4983.278029624089</v>
       </c>
       <c r="G5" t="n">
         <v>5408.47931209644</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34180.17208139451</v>
+        <v>33434.63670248282</v>
       </c>
       <c r="C6" t="n">
-        <v>34180.17208139462</v>
+        <v>33434.63670248276</v>
       </c>
       <c r="D6" t="n">
-        <v>34180.17208139445</v>
+        <v>33434.63670248282</v>
       </c>
       <c r="E6" t="n">
-        <v>6345.301075104734</v>
+        <v>5628.067208810622</v>
       </c>
       <c r="F6" t="n">
-        <v>84432.83498164124</v>
+        <v>83715.60111534712</v>
       </c>
       <c r="G6" t="n">
-        <v>83169.84903006106</v>
+        <v>82439.73731815345</v>
       </c>
       <c r="H6" t="n">
-        <v>34966.93210310323</v>
+        <v>33795.01226050746</v>
       </c>
       <c r="I6" t="n">
-        <v>106080.0471238803</v>
+        <v>104908.1272812846</v>
       </c>
       <c r="J6" t="n">
-        <v>106080.0471238802</v>
+        <v>104908.1272812845</v>
       </c>
       <c r="K6" t="n">
-        <v>106080.0471238802</v>
+        <v>104908.1272812846</v>
       </c>
       <c r="L6" t="n">
-        <v>106080.0471238802</v>
+        <v>104908.1272812845</v>
       </c>
       <c r="M6" t="n">
-        <v>101756.4383485107</v>
+        <v>100675.5620712147</v>
       </c>
       <c r="N6" t="n">
-        <v>101756.4383485108</v>
+        <v>100675.5620712147</v>
       </c>
       <c r="O6" t="n">
-        <v>101200.1516144768</v>
+        <v>100130.9892387445</v>
       </c>
       <c r="P6" t="n">
-        <v>78608.56001342165</v>
+        <v>78000.27992199425</v>
       </c>
     </row>
   </sheetData>
@@ -26744,19 +26744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>76.99542773726286</v>
+        <v>76.99542773726287</v>
       </c>
       <c r="F3" t="n">
-        <v>76.99542773726286</v>
+        <v>76.99542773726287</v>
       </c>
       <c r="G3" t="n">
-        <v>76.99542773726286</v>
+        <v>76.99542773726287</v>
       </c>
       <c r="H3" t="n">
-        <v>76.99542773726286</v>
+        <v>76.99542773726287</v>
       </c>
       <c r="I3" t="n">
-        <v>76.99542773726286</v>
+        <v>76.99542773726287</v>
       </c>
       <c r="J3" t="n">
         <v>76.99542773726287</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="F4" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="G4" t="n">
         <v>61.34833860894916</v>
@@ -26808,7 +26808,7 @@
         <v>324.9166963018986</v>
       </c>
       <c r="I4" t="n">
-        <v>324.9166963018986</v>
+        <v>324.9166963018987</v>
       </c>
       <c r="J4" t="n">
         <v>324.9166963018986</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>76.99542773726286</v>
+        <v>76.99542773726287</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.9934421459268</v>
+        <v>6.993442145926822</v>
       </c>
       <c r="H4" t="n">
         <v>263.5683576929495</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.9934421459268</v>
+        <v>6.993442145926822</v>
       </c>
       <c r="P4" t="n">
         <v>263.5683576929495</v>
@@ -31753,40 +31753,40 @@
         <v>0.3095293577377399</v>
       </c>
       <c r="H11" t="n">
-        <v>3.169967534931629</v>
+        <v>3.16996753493163</v>
       </c>
       <c r="I11" t="n">
         <v>11.93313056418423</v>
       </c>
       <c r="J11" t="n">
-        <v>26.27091732629352</v>
+        <v>26.27091732629353</v>
       </c>
       <c r="K11" t="n">
-        <v>39.37329503933206</v>
+        <v>39.37329503933207</v>
       </c>
       <c r="L11" t="n">
-        <v>48.84605412119843</v>
+        <v>48.84605412119844</v>
       </c>
       <c r="M11" t="n">
-        <v>54.35064683686696</v>
+        <v>54.35064683686697</v>
       </c>
       <c r="N11" t="n">
-        <v>55.23009712453932</v>
+        <v>55.23009712453933</v>
       </c>
       <c r="O11" t="n">
-        <v>52.15221457353466</v>
+        <v>52.15221457353467</v>
       </c>
       <c r="P11" t="n">
-        <v>44.5107085543842</v>
+        <v>44.51070855438421</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.42568843040138</v>
+        <v>33.42568843040139</v>
       </c>
       <c r="R11" t="n">
-        <v>19.44347351799332</v>
+        <v>19.44347351799333</v>
       </c>
       <c r="S11" t="n">
-        <v>7.053400239448755</v>
+        <v>7.053400239448757</v>
       </c>
       <c r="T11" t="n">
         <v>1.354964763496957</v>
@@ -31832,10 +31832,10 @@
         <v>0.1656128068310937</v>
       </c>
       <c r="H12" t="n">
-        <v>1.599471055447668</v>
+        <v>1.599471055447669</v>
       </c>
       <c r="I12" t="n">
-        <v>5.702019884316165</v>
+        <v>5.702019884316166</v>
       </c>
       <c r="J12" t="n">
         <v>15.64677838573943</v>
@@ -31847,13 +31847,13 @@
         <v>35.95904386918112</v>
       </c>
       <c r="M12" t="n">
-        <v>41.96250811680825</v>
+        <v>41.96250811680826</v>
       </c>
       <c r="N12" t="n">
         <v>43.07313084332029</v>
       </c>
       <c r="O12" t="n">
-        <v>39.40349970248395</v>
+        <v>39.40349970248396</v>
       </c>
       <c r="P12" t="n">
         <v>31.62478238514105</v>
@@ -31868,10 +31868,10 @@
         <v>3.076185249691585</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6675358310428731</v>
+        <v>0.6675358310428732</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01089557939678248</v>
+        <v>0.01089557939678249</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>0.1388442139524412</v>
       </c>
       <c r="H13" t="n">
-        <v>1.234451284049887</v>
+        <v>1.234451284049888</v>
       </c>
       <c r="I13" t="n">
-        <v>4.17542417958796</v>
+        <v>4.175424179587961</v>
       </c>
       <c r="J13" t="n">
-        <v>9.816285926437592</v>
+        <v>9.816285926437594</v>
       </c>
       <c r="K13" t="n">
         <v>16.13117322101998</v>
@@ -31932,7 +31932,7 @@
         <v>21.24695139510404</v>
       </c>
       <c r="O13" t="n">
-        <v>19.62499853211415</v>
+        <v>19.62499853211416</v>
       </c>
       <c r="P13" t="n">
         <v>16.79257656748434</v>
@@ -31941,16 +31941,16 @@
         <v>11.62630958832669</v>
       </c>
       <c r="R13" t="n">
-        <v>6.242940747352491</v>
+        <v>6.242940747352493</v>
       </c>
       <c r="S13" t="n">
         <v>2.419675983152997</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5932434596149759</v>
+        <v>0.593243459614976</v>
       </c>
       <c r="U13" t="n">
-        <v>0.007573320761042257</v>
+        <v>0.007573320761042258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,40 +31990,40 @@
         <v>0.3095293577377399</v>
       </c>
       <c r="H14" t="n">
-        <v>3.169967534931629</v>
+        <v>3.16996753493163</v>
       </c>
       <c r="I14" t="n">
         <v>11.93313056418423</v>
       </c>
       <c r="J14" t="n">
-        <v>26.27091732629352</v>
+        <v>26.27091732629353</v>
       </c>
       <c r="K14" t="n">
-        <v>39.37329503933206</v>
+        <v>39.37329503933207</v>
       </c>
       <c r="L14" t="n">
-        <v>48.84605412119843</v>
+        <v>48.84605412119844</v>
       </c>
       <c r="M14" t="n">
-        <v>54.35064683686696</v>
+        <v>54.35064683686697</v>
       </c>
       <c r="N14" t="n">
-        <v>55.23009712453932</v>
+        <v>55.23009712453933</v>
       </c>
       <c r="O14" t="n">
-        <v>52.15221457353466</v>
+        <v>52.15221457353467</v>
       </c>
       <c r="P14" t="n">
-        <v>44.5107085543842</v>
+        <v>44.51070855438421</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.42568843040138</v>
+        <v>33.42568843040139</v>
       </c>
       <c r="R14" t="n">
-        <v>19.44347351799332</v>
+        <v>19.44347351799333</v>
       </c>
       <c r="S14" t="n">
-        <v>7.053400239448755</v>
+        <v>7.053400239448757</v>
       </c>
       <c r="T14" t="n">
         <v>1.354964763496957</v>
@@ -32069,10 +32069,10 @@
         <v>0.1656128068310937</v>
       </c>
       <c r="H15" t="n">
-        <v>1.599471055447668</v>
+        <v>1.599471055447669</v>
       </c>
       <c r="I15" t="n">
-        <v>5.702019884316165</v>
+        <v>5.702019884316166</v>
       </c>
       <c r="J15" t="n">
         <v>15.64677838573943</v>
@@ -32084,13 +32084,13 @@
         <v>35.95904386918112</v>
       </c>
       <c r="M15" t="n">
-        <v>41.96250811680825</v>
+        <v>41.96250811680826</v>
       </c>
       <c r="N15" t="n">
         <v>43.07313084332029</v>
       </c>
       <c r="O15" t="n">
-        <v>39.40349970248395</v>
+        <v>39.40349970248396</v>
       </c>
       <c r="P15" t="n">
         <v>31.62478238514105</v>
@@ -32105,10 +32105,10 @@
         <v>3.076185249691585</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6675358310428731</v>
+        <v>0.6675358310428732</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01089557939678248</v>
+        <v>0.01089557939678249</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>0.1388442139524412</v>
       </c>
       <c r="H16" t="n">
-        <v>1.234451284049887</v>
+        <v>1.234451284049888</v>
       </c>
       <c r="I16" t="n">
-        <v>4.17542417958796</v>
+        <v>4.175424179587961</v>
       </c>
       <c r="J16" t="n">
-        <v>9.816285926437592</v>
+        <v>9.816285926437594</v>
       </c>
       <c r="K16" t="n">
         <v>16.13117322101998</v>
@@ -32169,7 +32169,7 @@
         <v>21.24695139510404</v>
       </c>
       <c r="O16" t="n">
-        <v>19.62499853211415</v>
+        <v>19.62499853211416</v>
       </c>
       <c r="P16" t="n">
         <v>16.79257656748434</v>
@@ -32178,16 +32178,16 @@
         <v>11.62630958832669</v>
       </c>
       <c r="R16" t="n">
-        <v>6.242940747352491</v>
+        <v>6.242940747352493</v>
       </c>
       <c r="S16" t="n">
         <v>2.419675983152997</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5932434596149759</v>
+        <v>0.593243459614976</v>
       </c>
       <c r="U16" t="n">
-        <v>0.007573320761042257</v>
+        <v>0.007573320761042258</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,40 +32227,40 @@
         <v>0.3095293577377399</v>
       </c>
       <c r="H17" t="n">
-        <v>3.169967534931629</v>
+        <v>3.16996753493163</v>
       </c>
       <c r="I17" t="n">
         <v>11.93313056418423</v>
       </c>
       <c r="J17" t="n">
-        <v>26.27091732629352</v>
+        <v>26.27091732629353</v>
       </c>
       <c r="K17" t="n">
-        <v>39.37329503933206</v>
+        <v>39.37329503933207</v>
       </c>
       <c r="L17" t="n">
-        <v>48.84605412119843</v>
+        <v>48.84605412119844</v>
       </c>
       <c r="M17" t="n">
-        <v>54.35064683686696</v>
+        <v>54.35064683686697</v>
       </c>
       <c r="N17" t="n">
-        <v>55.23009712453932</v>
+        <v>55.23009712453933</v>
       </c>
       <c r="O17" t="n">
-        <v>52.15221457353466</v>
+        <v>52.15221457353467</v>
       </c>
       <c r="P17" t="n">
-        <v>44.5107085543842</v>
+        <v>44.51070855438421</v>
       </c>
       <c r="Q17" t="n">
-        <v>33.42568843040138</v>
+        <v>33.42568843040139</v>
       </c>
       <c r="R17" t="n">
-        <v>19.44347351799332</v>
+        <v>19.44347351799333</v>
       </c>
       <c r="S17" t="n">
-        <v>7.053400239448755</v>
+        <v>7.053400239448757</v>
       </c>
       <c r="T17" t="n">
         <v>1.354964763496957</v>
@@ -32306,10 +32306,10 @@
         <v>0.1656128068310937</v>
       </c>
       <c r="H18" t="n">
-        <v>1.599471055447668</v>
+        <v>1.599471055447669</v>
       </c>
       <c r="I18" t="n">
-        <v>5.702019884316165</v>
+        <v>5.702019884316166</v>
       </c>
       <c r="J18" t="n">
         <v>15.64677838573943</v>
@@ -32321,13 +32321,13 @@
         <v>35.95904386918112</v>
       </c>
       <c r="M18" t="n">
-        <v>41.96250811680825</v>
+        <v>41.96250811680826</v>
       </c>
       <c r="N18" t="n">
         <v>43.07313084332029</v>
       </c>
       <c r="O18" t="n">
-        <v>39.40349970248395</v>
+        <v>39.40349970248396</v>
       </c>
       <c r="P18" t="n">
         <v>31.62478238514105</v>
@@ -32342,10 +32342,10 @@
         <v>3.076185249691585</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6675358310428731</v>
+        <v>0.6675358310428732</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01089557939678248</v>
+        <v>0.01089557939678249</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>0.1388442139524412</v>
       </c>
       <c r="H19" t="n">
-        <v>1.234451284049887</v>
+        <v>1.234451284049888</v>
       </c>
       <c r="I19" t="n">
-        <v>4.17542417958796</v>
+        <v>4.175424179587961</v>
       </c>
       <c r="J19" t="n">
-        <v>9.816285926437592</v>
+        <v>9.816285926437594</v>
       </c>
       <c r="K19" t="n">
         <v>16.13117322101998</v>
@@ -32406,7 +32406,7 @@
         <v>21.24695139510404</v>
       </c>
       <c r="O19" t="n">
-        <v>19.62499853211415</v>
+        <v>19.62499853211416</v>
       </c>
       <c r="P19" t="n">
         <v>16.79257656748434</v>
@@ -32415,16 +32415,16 @@
         <v>11.62630958832669</v>
       </c>
       <c r="R19" t="n">
-        <v>6.242940747352491</v>
+        <v>6.242940747352493</v>
       </c>
       <c r="S19" t="n">
         <v>2.419675983152997</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5932434596149759</v>
+        <v>0.593243459614976</v>
       </c>
       <c r="U19" t="n">
-        <v>0.007573320761042257</v>
+        <v>0.007573320761042258</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,40 +32464,40 @@
         <v>0.3095293577377399</v>
       </c>
       <c r="H20" t="n">
-        <v>3.169967534931629</v>
+        <v>3.16996753493163</v>
       </c>
       <c r="I20" t="n">
         <v>11.93313056418423</v>
       </c>
       <c r="J20" t="n">
-        <v>26.27091732629352</v>
+        <v>26.27091732629353</v>
       </c>
       <c r="K20" t="n">
-        <v>39.37329503933206</v>
+        <v>39.37329503933207</v>
       </c>
       <c r="L20" t="n">
-        <v>48.84605412119843</v>
+        <v>48.84605412119844</v>
       </c>
       <c r="M20" t="n">
-        <v>54.35064683686696</v>
+        <v>54.35064683686697</v>
       </c>
       <c r="N20" t="n">
-        <v>55.23009712453932</v>
+        <v>55.23009712453933</v>
       </c>
       <c r="O20" t="n">
-        <v>52.15221457353466</v>
+        <v>52.15221457353467</v>
       </c>
       <c r="P20" t="n">
-        <v>44.5107085543842</v>
+        <v>44.51070855438421</v>
       </c>
       <c r="Q20" t="n">
-        <v>33.42568843040138</v>
+        <v>33.42568843040139</v>
       </c>
       <c r="R20" t="n">
-        <v>19.44347351799332</v>
+        <v>19.44347351799333</v>
       </c>
       <c r="S20" t="n">
-        <v>7.053400239448755</v>
+        <v>7.053400239448757</v>
       </c>
       <c r="T20" t="n">
         <v>1.354964763496957</v>
@@ -32543,10 +32543,10 @@
         <v>0.1656128068310937</v>
       </c>
       <c r="H21" t="n">
-        <v>1.599471055447668</v>
+        <v>1.599471055447669</v>
       </c>
       <c r="I21" t="n">
-        <v>5.702019884316165</v>
+        <v>5.702019884316166</v>
       </c>
       <c r="J21" t="n">
         <v>15.64677838573943</v>
@@ -32558,13 +32558,13 @@
         <v>35.95904386918112</v>
       </c>
       <c r="M21" t="n">
-        <v>41.96250811680825</v>
+        <v>41.96250811680826</v>
       </c>
       <c r="N21" t="n">
         <v>43.07313084332029</v>
       </c>
       <c r="O21" t="n">
-        <v>39.40349970248395</v>
+        <v>39.40349970248396</v>
       </c>
       <c r="P21" t="n">
         <v>31.62478238514105</v>
@@ -32579,10 +32579,10 @@
         <v>3.076185249691585</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6675358310428731</v>
+        <v>0.6675358310428732</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01089557939678248</v>
+        <v>0.01089557939678249</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>0.1388442139524412</v>
       </c>
       <c r="H22" t="n">
-        <v>1.234451284049887</v>
+        <v>1.234451284049888</v>
       </c>
       <c r="I22" t="n">
-        <v>4.17542417958796</v>
+        <v>4.175424179587961</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816285926437592</v>
+        <v>9.816285926437594</v>
       </c>
       <c r="K22" t="n">
         <v>16.13117322101998</v>
@@ -32643,7 +32643,7 @@
         <v>21.24695139510404</v>
       </c>
       <c r="O22" t="n">
-        <v>19.62499853211415</v>
+        <v>19.62499853211416</v>
       </c>
       <c r="P22" t="n">
         <v>16.79257656748434</v>
@@ -32652,16 +32652,16 @@
         <v>11.62630958832669</v>
       </c>
       <c r="R22" t="n">
-        <v>6.242940747352491</v>
+        <v>6.242940747352493</v>
       </c>
       <c r="S22" t="n">
         <v>2.419675983152997</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5932434596149759</v>
+        <v>0.593243459614976</v>
       </c>
       <c r="U22" t="n">
-        <v>0.007573320761042257</v>
+        <v>0.007573320761042258</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,40 +32701,40 @@
         <v>0.3095293577377399</v>
       </c>
       <c r="H23" t="n">
-        <v>3.169967534931629</v>
+        <v>3.16996753493163</v>
       </c>
       <c r="I23" t="n">
         <v>11.93313056418423</v>
       </c>
       <c r="J23" t="n">
-        <v>26.27091732629352</v>
+        <v>26.27091732629353</v>
       </c>
       <c r="K23" t="n">
-        <v>39.37329503933206</v>
+        <v>39.37329503933207</v>
       </c>
       <c r="L23" t="n">
-        <v>48.84605412119843</v>
+        <v>48.84605412119844</v>
       </c>
       <c r="M23" t="n">
-        <v>54.35064683686696</v>
+        <v>54.35064683686697</v>
       </c>
       <c r="N23" t="n">
-        <v>55.23009712453932</v>
+        <v>55.23009712453933</v>
       </c>
       <c r="O23" t="n">
-        <v>52.15221457353466</v>
+        <v>52.15221457353467</v>
       </c>
       <c r="P23" t="n">
-        <v>44.5107085543842</v>
+        <v>44.51070855438421</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.42568843040138</v>
+        <v>33.42568843040139</v>
       </c>
       <c r="R23" t="n">
-        <v>19.44347351799332</v>
+        <v>19.44347351799333</v>
       </c>
       <c r="S23" t="n">
-        <v>7.053400239448755</v>
+        <v>7.053400239448757</v>
       </c>
       <c r="T23" t="n">
         <v>1.354964763496957</v>
@@ -32780,10 +32780,10 @@
         <v>0.1656128068310937</v>
       </c>
       <c r="H24" t="n">
-        <v>1.599471055447668</v>
+        <v>1.599471055447669</v>
       </c>
       <c r="I24" t="n">
-        <v>5.702019884316165</v>
+        <v>5.702019884316166</v>
       </c>
       <c r="J24" t="n">
         <v>15.64677838573943</v>
@@ -32795,13 +32795,13 @@
         <v>35.95904386918112</v>
       </c>
       <c r="M24" t="n">
-        <v>41.96250811680825</v>
+        <v>41.96250811680826</v>
       </c>
       <c r="N24" t="n">
         <v>43.07313084332029</v>
       </c>
       <c r="O24" t="n">
-        <v>39.40349970248395</v>
+        <v>39.40349970248396</v>
       </c>
       <c r="P24" t="n">
         <v>31.62478238514105</v>
@@ -32816,10 +32816,10 @@
         <v>3.076185249691585</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6675358310428731</v>
+        <v>0.6675358310428732</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01089557939678248</v>
+        <v>0.01089557939678249</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>0.1388442139524412</v>
       </c>
       <c r="H25" t="n">
-        <v>1.234451284049887</v>
+        <v>1.234451284049888</v>
       </c>
       <c r="I25" t="n">
-        <v>4.17542417958796</v>
+        <v>4.175424179587961</v>
       </c>
       <c r="J25" t="n">
-        <v>9.816285926437592</v>
+        <v>9.816285926437594</v>
       </c>
       <c r="K25" t="n">
         <v>16.13117322101998</v>
@@ -32880,7 +32880,7 @@
         <v>21.24695139510404</v>
       </c>
       <c r="O25" t="n">
-        <v>19.62499853211415</v>
+        <v>19.62499853211416</v>
       </c>
       <c r="P25" t="n">
         <v>16.79257656748434</v>
@@ -32889,16 +32889,16 @@
         <v>11.62630958832669</v>
       </c>
       <c r="R25" t="n">
-        <v>6.242940747352491</v>
+        <v>6.242940747352493</v>
       </c>
       <c r="S25" t="n">
         <v>2.419675983152997</v>
       </c>
       <c r="T25" t="n">
-        <v>0.5932434596149759</v>
+        <v>0.593243459614976</v>
       </c>
       <c r="U25" t="n">
-        <v>0.007573320761042257</v>
+        <v>0.007573320761042258</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>14.32162797168101</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="M11" t="n">
-        <v>14.40212184263538</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="O11" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="P11" t="n">
-        <v>54.35489646302234</v>
+        <v>28.72374981431637</v>
       </c>
       <c r="Q11" t="n">
         <v>23.43498921585658</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.90018705948157</v>
+        <v>14.90018705948158</v>
       </c>
       <c r="K12" t="n">
-        <v>54.35489646302234</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>54.35489646302234</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>37.25855197069139</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>37.25855197069141</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>48.23237321466362</v>
+        <v>48.23237321466363</v>
       </c>
       <c r="M13" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="N13" t="n">
-        <v>54.35489646302236</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="O13" t="n">
-        <v>44.21012644615382</v>
+        <v>44.21012644615383</v>
       </c>
       <c r="P13" t="n">
-        <v>14.07113583237782</v>
+        <v>14.07113583237783</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="L14" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="M14" t="n">
-        <v>54.35489646302234</v>
+        <v>28.72374981431637</v>
       </c>
       <c r="N14" t="n">
-        <v>28.7237498143164</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.90018705948157</v>
+        <v>14.90018705948158</v>
       </c>
       <c r="K15" t="n">
-        <v>54.35489646302234</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>37.25855197069139</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="N15" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>37.2585519706914</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>48.23237321466362</v>
+        <v>48.23237321466363</v>
       </c>
       <c r="M16" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="N16" t="n">
-        <v>54.35489646302234</v>
+        <v>54.35489646302235</v>
       </c>
       <c r="O16" t="n">
-        <v>44.21012644615382</v>
+        <v>44.21012644615383</v>
       </c>
       <c r="P16" t="n">
-        <v>14.07113583237782</v>
+        <v>14.07113583237783</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>21.11300066953487</v>
+        <v>61.34833860894916</v>
       </c>
       <c r="M17" t="n">
         <v>61.34833860894916</v>
@@ -35896,13 +35896,13 @@
         <v>61.34833860894916</v>
       </c>
       <c r="O17" t="n">
-        <v>61.34833860894916</v>
+        <v>44.54798988539143</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.43498921585658</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.90018705948157</v>
+        <v>14.90018705948158</v>
       </c>
       <c r="K18" t="n">
         <v>61.34833860894916</v>
@@ -35969,19 +35969,19 @@
         <v>61.34833860894916</v>
       </c>
       <c r="M18" t="n">
+        <v>61.34833860894916</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>43.96943079759085</v>
-      </c>
-      <c r="N18" t="n">
-        <v>61.34833860894916</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>48.23237321466362</v>
+        <v>48.23237321466363</v>
       </c>
       <c r="M19" t="n">
         <v>61.34833860894916</v>
@@ -36054,10 +36054,10 @@
         <v>61.34833860894916</v>
       </c>
       <c r="O19" t="n">
-        <v>44.21012644615382</v>
+        <v>44.21012644615383</v>
       </c>
       <c r="P19" t="n">
-        <v>14.07113583237782</v>
+        <v>14.07113583237783</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>14.32162797168101</v>
       </c>
       <c r="K20" t="n">
-        <v>143.4288565655162</v>
+        <v>143.4288565655163</v>
       </c>
       <c r="L20" t="n">
         <v>230.7408537016616</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.90018705948157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>153.3666344816423</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>268.2450093927661</v>
       </c>
       <c r="M21" t="n">
-        <v>324.9166963018986</v>
+        <v>95.35857087465878</v>
       </c>
       <c r="N21" t="n">
         <v>324.9166963018986</v>
@@ -36215,10 +36215,10 @@
         <v>290.669574534769</v>
       </c>
       <c r="P21" t="n">
-        <v>177.7690492025751</v>
+        <v>216.113143610748</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>91.23584316742475</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>48.23237321466362</v>
+        <v>48.23237321466363</v>
       </c>
       <c r="M22" t="n">
         <v>61.34833860894916</v>
@@ -36291,10 +36291,10 @@
         <v>65.37912377433264</v>
       </c>
       <c r="O22" t="n">
-        <v>44.21012644615382</v>
+        <v>44.21012644615383</v>
       </c>
       <c r="P22" t="n">
-        <v>14.07113583237782</v>
+        <v>14.07113583237783</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>14.32162797168101</v>
       </c>
       <c r="K23" t="n">
-        <v>143.4288565655162</v>
+        <v>143.4288565655163</v>
       </c>
       <c r="L23" t="n">
         <v>230.7408537016616</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.90018705948157</v>
+        <v>14.90018705948158</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>153.3666344816423</v>
       </c>
       <c r="L24" t="n">
-        <v>268.2450093927661</v>
+        <v>86.53320603515041</v>
       </c>
       <c r="M24" t="n">
-        <v>324.9166963018986</v>
+        <v>324.9166963018987</v>
       </c>
       <c r="N24" t="n">
-        <v>324.9166963018986</v>
+        <v>324.9166963018987</v>
       </c>
       <c r="O24" t="n">
-        <v>46.21126204804757</v>
+        <v>290.669574534769</v>
       </c>
       <c r="P24" t="n">
-        <v>216.113143610748</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.23584316742473</v>
+        <v>91.23584316742475</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>48.23237321466362</v>
+        <v>48.23237321466363</v>
       </c>
       <c r="M25" t="n">
         <v>61.34833860894916</v>
@@ -36528,10 +36528,10 @@
         <v>65.37912377433264</v>
       </c>
       <c r="O25" t="n">
-        <v>44.21012644615382</v>
+        <v>44.21012644615383</v>
       </c>
       <c r="P25" t="n">
-        <v>14.07113583237782</v>
+        <v>14.07113583237783</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>14.32162797168101</v>
       </c>
       <c r="K26" t="n">
-        <v>143.4288565655163</v>
+        <v>143.4288565655162</v>
       </c>
       <c r="L26" t="n">
         <v>230.7408537016616</v>
@@ -36674,10 +36674,10 @@
         <v>14.90018705948158</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.4471052154724</v>
       </c>
       <c r="L27" t="n">
-        <v>23.78669690604465</v>
+        <v>268.2450093927661</v>
       </c>
       <c r="M27" t="n">
         <v>324.9166963018986</v>
@@ -36686,13 +36686,13 @@
         <v>324.9166963018986</v>
       </c>
       <c r="O27" t="n">
-        <v>290.669574534769</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>216.113143610748</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.23584316742475</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>14.32162797168096</v>
+        <v>14.32162797168101</v>
       </c>
       <c r="K29" t="n">
         <v>143.4288565655163</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.90018705948158</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,13 +36923,13 @@
         <v>324.9166963018986</v>
       </c>
       <c r="O30" t="n">
-        <v>290.669574534769</v>
+        <v>61.11144910752927</v>
       </c>
       <c r="P30" t="n">
-        <v>62.89067429145119</v>
+        <v>216.113143610748</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>91.23584316742475</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>14.90018705948158</v>
       </c>
       <c r="K33" t="n">
-        <v>80.4583838151772</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>268.2450093927661</v>
+        <v>23.78669690604465</v>
       </c>
       <c r="M33" t="n">
         <v>324.9166963018986</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>324.9166963018986</v>
       </c>
       <c r="O33" t="n">
         <v>290.669574534769</v>
@@ -37306,10 +37306,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>103.9946135679615</v>
+        <v>143.4288565655163</v>
       </c>
       <c r="L35" t="n">
-        <v>230.7408537016616</v>
+        <v>32.79520051765319</v>
       </c>
       <c r="M35" t="n">
         <v>270.5617998388763</v>
@@ -37321,10 +37321,10 @@
         <v>202.8541844145933</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.0764209705973</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>23.43498921585658</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>153.3666344816423</v>
       </c>
       <c r="L36" t="n">
-        <v>268.2450093927661</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>54.57600146597623</v>
+      </c>
+      <c r="N36" t="n">
         <v>270.5617998388763</v>
       </c>
-      <c r="N36" t="n">
-        <v>56.89279191208634</v>
-      </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>270.5617998388763</v>
       </c>
       <c r="P36" t="n">
         <v>216.113143610748</v>
@@ -37543,7 +37543,7 @@
         <v>14.32162797168101</v>
       </c>
       <c r="K38" t="n">
-        <v>143.4288565655163</v>
+        <v>89.67298559628053</v>
       </c>
       <c r="L38" t="n">
         <v>230.7408537016616</v>
@@ -37555,13 +37555,13 @@
         <v>263.1639579399326</v>
       </c>
       <c r="O38" t="n">
-        <v>125.6633242295011</v>
+        <v>202.8541844145933</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>23.43498921585658</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.90018705948158</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>268.2450093927661</v>
       </c>
       <c r="M39" t="n">
         <v>270.5617998388763</v>
       </c>
       <c r="N39" t="n">
-        <v>270.5617998388763</v>
+        <v>170.710957225082</v>
       </c>
       <c r="O39" t="n">
         <v>270.5617998388763</v>
       </c>
       <c r="P39" t="n">
-        <v>216.113143610748</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.61667927616697</v>
+        <v>91.23584316742475</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>14.32162797168101</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>143.4288565655163</v>
       </c>
       <c r="L41" t="n">
-        <v>230.7408537016616</v>
+        <v>200.6299938418122</v>
       </c>
       <c r="M41" t="n">
         <v>263.5683576929495</v>
       </c>
       <c r="N41" t="n">
-        <v>187.9493982026873</v>
+        <v>263.1639579399326</v>
       </c>
       <c r="O41" t="n">
-        <v>202.8541844145933</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>135.0764209705973</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>263.5683576929495</v>
+        <v>146.7831008925907</v>
       </c>
       <c r="M42" t="n">
         <v>263.5683576929495</v>
@@ -37871,7 +37871,7 @@
         <v>263.5683576929495</v>
       </c>
       <c r="O42" t="n">
-        <v>146.7831008925907</v>
+        <v>263.5683576929495</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
